--- a/Controle do Relatório.xlsx
+++ b/Controle do Relatório.xlsx
@@ -28,7 +28,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RECLAMAÇÕES'!$A$1:$H$110</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ControledoRelatório.xlsxReclamações" hidden="1">Reclamações[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ControledoRelatório.xlsxReclamações1" hidden="1">Reclamações[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -83,7 +83,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Reclamações" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ControledoRelatório.xlsxReclamações"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ControledoRelatório.xlsxReclamações1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -21201,8 +21201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="H7:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Controle do Relatório.xlsx
+++ b/Controle do Relatório.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/185e3c90f4f052e8/Trampo/Programs/RelatorioSistema/analise-relatorio-sistema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F35BE9F6-746D-42FF-9E8D-D8F8C709BDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD33D08E-BDA0-4139-BC47-9D6381A9F3DF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F35BE9F6-746D-42FF-9E8D-D8F8C709BDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{855803E4-324F-47D7-B7C9-62163FF13D6B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="815" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="815" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análise Reclamações" sheetId="16" r:id="rId1"/>
@@ -32,8 +32,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="506">
   <si>
     <t xml:space="preserve">Problema </t>
   </si>
@@ -1930,7 +1930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2024,9 +2024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2053,9 +2050,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2193,7 +2187,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="48">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2575,38 +2569,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -6194,7 +6156,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Reclamações" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Reclamações" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" defaultAttributeDrillState="1">
@@ -6475,7 +6437,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="Tabela dinâmica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -6798,18 +6760,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ReclamaçõesPct" displayName="ReclamaçõesPct" ref="E4:G6" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ReclamaçõesPct" displayName="ReclamaçõesPct" ref="E4:G6" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="E4:G6" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mês" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Em Andamento" dataDxfId="46" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mês" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Em Andamento" dataDxfId="45" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>GETPIVOTDATA("[Measures].[Contagem de Problema]",$A$3,"[Reclamações].[Status]","[Reclamações].[Status].&amp;[CONCLUÍDO]","[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[mai]")/GETPIVOTDATA("[Measures].[Contagem de Problema]",$A$3,"[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[mai]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cnocluído" dataDxfId="45" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cnocluído" dataDxfId="44" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>GETPIVOTDATA("[Measures].[Contagem de Problema]",$A$3,"[Reclamações].[Status]","[Reclamações].[Status].&amp;[EM ANDAMENTO]","[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[mai]")/GETPIVOTDATA("[Measures].[Contagem de Problema]",$A$3,"[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[mai]")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6818,46 +6780,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Reclamações" displayName="Reclamações" ref="A1:H139" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Reclamações" displayName="Reclamações" ref="A1:H139" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A1:H139" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Problema " dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="RPPS" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="UF" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Data do Recebimento" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Hora Recebimento" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data da Conclusão" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Hora Conclusão" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Status" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Problema " dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="RPPS" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="UF" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Data do Recebimento" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Hora Recebimento" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data da Conclusão" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Hora Conclusão" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Status" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tb_Quedas" displayName="Tb_Quedas" ref="B1:I103" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tb_Quedas" displayName="Tb_Quedas" ref="B1:I103" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="B1:I103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Contagem" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Coluna1" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Contagem" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Coluna1" dataDxfId="27">
       <calculatedColumnFormula array="1">DATA</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Começou" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Terminou" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Duração" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="O que houve" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Responsável" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Motivo" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Começou" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Terminou" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Duração" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="O que houve" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Responsável" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Motivo" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela2" displayName="Tabela2" ref="B1:G8" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="B1:G8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Contagem" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Nome" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Grupo" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Importância" dataDxfId="14"/>
@@ -7264,7 +7225,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s" vm="1">
@@ -7272,7 +7233,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>390</v>
       </c>
       <c r="B3" t="s">
@@ -7281,14 +7242,14 @@
       <c r="C3" t="s">
         <v>391</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="102" t="s">
         <v>502</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>392</v>
       </c>
       <c r="B4">
@@ -7308,7 +7269,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="76" t="s">
         <v>12</v>
       </c>
       <c r="B5">
@@ -7320,17 +7281,17 @@
       <c r="E5" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="100">
         <f>GETPIVOTDATA("[Measures].[Contagem de Problema]",$A$3,"[Reclamações].[Status]","[Reclamações].[Status].&amp;[EM ANDAMENTO]","[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[abr]")/GETPIVOTDATA("[Measures].[Contagem de Problema]",$A$3,"[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[abr]")</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="100">
         <f>GETPIVOTDATA("[Measures].[Contagem de Problema]",$A$3,"[Reclamações].[Status]","[Reclamações].[Status].&amp;[CONCLUÍDO]","[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[abr]")/GETPIVOTDATA("[Measures].[Contagem de Problema]",$A$3,"[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[abr]")</f>
         <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="77" t="s">
         <v>46</v>
       </c>
       <c r="B6">
@@ -7342,17 +7303,17 @@
       <c r="E6" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F6" s="102">
+      <c r="F6" s="100">
         <f>GETPIVOTDATA("[Measures].[Contagem Distinta de RPPS]",$A$3,"[Reclamações].[Status]","[Reclamações].[Status].&amp;[EM ANDAMENTO]","[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[mai]")/GETPIVOTDATA("[Measures].[Contagem Distinta de RPPS]",$A$3,"[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[mai]")</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="100">
         <f>GETPIVOTDATA("[Measures].[Contagem Distinta de RPPS]",$A$3,"[Reclamações].[Status]","[Reclamações].[Status].&amp;[CONCLUÍDO]","[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[mai]")/GETPIVOTDATA("[Measures].[Contagem Distinta de RPPS]",$A$3,"[Reclamações].[Data do Recebimento (Mês)]","[Reclamações].[Data do Recebimento (Mês)].&amp;[mai]")</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="77" t="s">
         <v>47</v>
       </c>
       <c r="B7">
@@ -7363,7 +7324,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B8">
@@ -7374,7 +7335,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B9">
@@ -7385,7 +7346,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="77" t="s">
         <v>36</v>
       </c>
       <c r="B10">
@@ -7396,7 +7357,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="77" t="s">
         <v>33</v>
       </c>
       <c r="B11">
@@ -7407,7 +7368,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B12">
@@ -7418,7 +7379,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="77" t="s">
         <v>48</v>
       </c>
       <c r="B13">
@@ -7429,7 +7390,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="77" t="s">
         <v>31</v>
       </c>
       <c r="B14">
@@ -7440,7 +7401,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="77" t="s">
         <v>32</v>
       </c>
       <c r="B15">
@@ -7451,7 +7412,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="77" t="s">
         <v>49</v>
       </c>
       <c r="B16">
@@ -7462,7 +7423,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="77" t="s">
         <v>394</v>
       </c>
       <c r="B17">
@@ -7473,7 +7434,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="77" t="s">
         <v>402</v>
       </c>
       <c r="B18">
@@ -7484,7 +7445,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="77" t="s">
         <v>420</v>
       </c>
       <c r="B19">
@@ -7495,7 +7456,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="76" t="s">
         <v>11</v>
       </c>
       <c r="B20">
@@ -7506,7 +7467,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="77" t="s">
         <v>34</v>
       </c>
       <c r="B21">
@@ -7517,7 +7478,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="77" t="s">
         <v>29</v>
       </c>
       <c r="B22">
@@ -7528,7 +7489,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="77" t="s">
         <v>49</v>
       </c>
       <c r="B23">
@@ -7539,7 +7500,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B24">
@@ -7550,7 +7511,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="77" t="s">
         <v>394</v>
       </c>
       <c r="B25">
@@ -7561,7 +7522,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="77" t="s">
         <v>402</v>
       </c>
       <c r="B26">
@@ -7572,7 +7533,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="75" t="s">
         <v>393</v>
       </c>
       <c r="B27">
@@ -7583,7 +7544,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="76" t="s">
         <v>12</v>
       </c>
       <c r="B28">
@@ -7594,7 +7555,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="77" t="s">
         <v>431</v>
       </c>
       <c r="B29">
@@ -7605,7 +7566,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="76" t="s">
         <v>11</v>
       </c>
       <c r="B30">
@@ -7616,7 +7577,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B31">
@@ -7627,7 +7588,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="77" t="s">
         <v>394</v>
       </c>
       <c r="B32">
@@ -7679,33 +7640,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="69" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -7714,13 +7675,13 @@
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="70">
         <v>45021</v>
       </c>
       <c r="E2" s="22">
         <v>0.47569444444444442</v>
       </c>
-      <c r="F2" s="72">
+      <c r="F2" s="70">
         <v>45021</v>
       </c>
       <c r="G2" s="22">
@@ -7734,7 +7695,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -7743,13 +7704,13 @@
       <c r="C3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="70">
         <v>45021</v>
       </c>
       <c r="E3" s="22">
         <v>0.47847222222222219</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="70">
         <v>45028</v>
       </c>
       <c r="G3" s="22">
@@ -7763,7 +7724,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -7772,13 +7733,13 @@
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="70">
         <v>45021</v>
       </c>
       <c r="E4" s="22">
         <v>0.59583333333333333</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="70">
         <v>45028</v>
       </c>
       <c r="G4" s="22">
@@ -7789,7 +7750,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -7798,13 +7759,13 @@
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="70">
         <v>45021</v>
       </c>
       <c r="E5" s="22">
         <v>0.61805555555555558</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="70">
         <v>45021</v>
       </c>
       <c r="G5" s="22">
@@ -7815,7 +7776,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -7824,13 +7785,13 @@
       <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="70">
         <v>45022</v>
       </c>
       <c r="E6" s="22">
         <v>0.40763888888888888</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="70">
         <v>45022</v>
       </c>
       <c r="G6" s="22">
@@ -7841,7 +7802,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -7850,13 +7811,13 @@
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="70">
         <v>45022</v>
       </c>
       <c r="E7" s="22">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="70">
         <v>45028</v>
       </c>
       <c r="G7" s="22">
@@ -7867,7 +7828,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -7876,13 +7837,13 @@
       <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="70">
         <v>45026</v>
       </c>
       <c r="E8" s="22">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="70">
         <v>45026</v>
       </c>
       <c r="G8" s="22">
@@ -7893,7 +7854,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -7902,13 +7863,13 @@
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="70">
         <v>45026</v>
       </c>
       <c r="E9" s="22">
         <v>0.38125000000000003</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="70">
         <v>45028</v>
       </c>
       <c r="G9" s="22">
@@ -7919,7 +7880,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -7928,13 +7889,13 @@
       <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="70">
         <v>45026</v>
       </c>
       <c r="E10" s="22">
         <v>0.44930555555555557</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="70">
         <v>45028</v>
       </c>
       <c r="G10" s="22">
@@ -7945,7 +7906,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="84" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -7954,13 +7915,13 @@
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="70">
         <v>45026</v>
       </c>
       <c r="E11" s="22">
         <v>0.58194444444444449</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="70">
         <v>45028</v>
       </c>
       <c r="G11" s="22">
@@ -7971,7 +7932,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -7980,13 +7941,13 @@
       <c r="C12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="70">
         <v>45026</v>
       </c>
       <c r="E12" s="22">
         <v>0.62777777777777777</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="70">
         <v>45026</v>
       </c>
       <c r="G12" s="22">
@@ -7997,7 +7958,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="84" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -8006,13 +7967,13 @@
       <c r="C13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="70">
         <v>45027</v>
       </c>
       <c r="E13" s="22">
         <v>0.43194444444444446</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="70">
         <v>45029</v>
       </c>
       <c r="G13" s="22">
@@ -8023,7 +7984,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -8032,13 +7993,13 @@
       <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="70">
         <v>45027</v>
       </c>
       <c r="E14" s="22">
         <v>0.46180555555555558</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="70">
         <v>45027</v>
       </c>
       <c r="G14" s="22">
@@ -8049,7 +8010,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -8058,20 +8019,20 @@
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="70">
         <v>45027</v>
       </c>
       <c r="E15" s="22">
         <v>0.54027777777777775</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="22"/>
       <c r="H15" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -8080,13 +8041,13 @@
       <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="70">
         <v>45028</v>
       </c>
       <c r="E16" s="22">
         <v>0.43888888888888888</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="70">
         <v>45028</v>
       </c>
       <c r="G16" s="22">
@@ -8097,7 +8058,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -8106,13 +8067,13 @@
       <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="70">
         <v>45028</v>
       </c>
       <c r="E17" s="22">
         <v>0.51736111111111105</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="70">
         <v>45028</v>
       </c>
       <c r="G17" s="22">
@@ -8123,7 +8084,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -8132,13 +8093,13 @@
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="70">
         <v>45028</v>
       </c>
       <c r="E18" s="22">
         <v>0.59722222222222221</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="70">
         <v>45028</v>
       </c>
       <c r="G18" s="22">
@@ -8149,7 +8110,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -8158,13 +8119,13 @@
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="70">
         <v>45028</v>
       </c>
       <c r="E19" s="22">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="70">
         <v>45028</v>
       </c>
       <c r="G19" s="22">
@@ -8175,7 +8136,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -8184,13 +8145,13 @@
       <c r="C20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="70">
         <v>45029</v>
       </c>
       <c r="E20" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="70">
         <v>45029</v>
       </c>
       <c r="G20" s="22">
@@ -8201,20 +8162,20 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72">
+      <c r="D21" s="70">
         <v>45029</v>
       </c>
       <c r="E21" s="22">
         <v>0.5</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="70">
         <v>45029</v>
       </c>
       <c r="G21" s="22">
@@ -8225,7 +8186,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="84" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -8234,13 +8195,13 @@
       <c r="C22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="70">
         <v>45029</v>
       </c>
       <c r="E22" s="22">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="70">
         <v>45028</v>
       </c>
       <c r="G22" s="22">
@@ -8251,7 +8212,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="85" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -8260,7 +8221,7 @@
       <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="70">
         <v>45029</v>
       </c>
       <c r="E23" s="22">
@@ -8277,7 +8238,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -8286,13 +8247,13 @@
       <c r="C24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="70">
         <v>45029</v>
       </c>
       <c r="E24" s="22">
         <v>0.59375</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="70">
         <v>45029</v>
       </c>
       <c r="G24" s="22">
@@ -8303,7 +8264,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="84" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -8312,20 +8273,20 @@
       <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="70">
         <v>45030</v>
       </c>
       <c r="E25" s="22">
         <v>0.375</v>
       </c>
-      <c r="F25" s="72"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="22"/>
       <c r="H25" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="84" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -8334,20 +8295,20 @@
       <c r="C26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="70">
         <v>45030</v>
       </c>
       <c r="E26" s="22">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="22"/>
       <c r="H26" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="84" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -8356,13 +8317,13 @@
       <c r="C27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="70">
         <v>45030</v>
       </c>
       <c r="E27" s="22">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F27" s="70">
         <v>45030</v>
       </c>
       <c r="G27" s="22">
@@ -8373,7 +8334,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -8382,13 +8343,13 @@
       <c r="C28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="70">
         <v>45030</v>
       </c>
       <c r="E28" s="22">
         <v>0.4375</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28" s="70">
         <v>45030</v>
       </c>
       <c r="G28" s="22">
@@ -8399,7 +8360,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -8408,13 +8369,13 @@
       <c r="C29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="70">
         <v>45030</v>
       </c>
       <c r="E29" s="22">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="70">
         <v>45030</v>
       </c>
       <c r="G29" s="22">
@@ -8425,7 +8386,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="84" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -8434,20 +8395,20 @@
       <c r="C30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="70">
         <v>45030</v>
       </c>
       <c r="E30" s="22">
         <v>0.5</v>
       </c>
-      <c r="F30" s="72"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="22"/>
       <c r="H30" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -8456,20 +8417,20 @@
       <c r="C31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="70">
         <v>45030</v>
       </c>
       <c r="E31" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F31" s="72"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="22"/>
       <c r="H31" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="84" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -8478,13 +8439,13 @@
       <c r="C32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="70">
         <v>45030</v>
       </c>
       <c r="E32" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="70">
         <v>45036</v>
       </c>
       <c r="G32" s="22">
@@ -8495,7 +8456,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="84" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -8504,13 +8465,13 @@
       <c r="C33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="70">
         <v>45030</v>
       </c>
       <c r="E33" s="22">
         <v>0.54513888888888895</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="70">
         <v>45036</v>
       </c>
       <c r="G33" s="22">
@@ -8521,7 +8482,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="84" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -8530,20 +8491,20 @@
       <c r="C34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="70">
         <v>45030</v>
       </c>
       <c r="E34" s="22">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F34" s="72"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="22"/>
       <c r="H34" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="84" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -8552,20 +8513,20 @@
       <c r="C35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="70">
         <v>45030</v>
       </c>
       <c r="E35" s="22">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F35" s="72"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="22"/>
       <c r="H35" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="85" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -8574,13 +8535,13 @@
       <c r="C36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="70">
         <v>45030</v>
       </c>
       <c r="E36" s="22">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F36" s="70">
         <v>45036</v>
       </c>
       <c r="G36" s="22">
@@ -8591,7 +8552,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="86" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -8617,7 +8578,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="85" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -8643,7 +8604,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -8669,7 +8630,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -8695,7 +8656,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="87" t="s">
         <v>394</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -8721,7 +8682,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="86" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -8747,7 +8708,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -8773,7 +8734,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -8799,7 +8760,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -8825,7 +8786,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="86" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -8849,7 +8810,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="86" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -8871,7 +8832,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="87" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -8893,7 +8854,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="86" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -8915,7 +8876,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="86" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -8937,7 +8898,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="86" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -8963,7 +8924,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="88" t="s">
+      <c r="A52" s="86" t="s">
         <v>31</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -8989,7 +8950,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="86" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -9015,7 +8976,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -9041,7 +9002,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="86" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -9067,7 +9028,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="88" t="s">
+      <c r="A56" s="86" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -9093,7 +9054,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -9119,7 +9080,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="87" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -9141,7 +9102,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="86" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -9167,7 +9128,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="87" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -9189,7 +9150,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="90" t="s">
+      <c r="A61" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="12" t="s">
@@ -9211,7 +9172,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="86" t="s">
         <v>33</v>
       </c>
       <c r="B62" s="12" t="s">
@@ -9237,7 +9198,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="90" t="s">
+      <c r="A63" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="12" t="s">
@@ -9259,7 +9220,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -9285,7 +9246,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="86" t="s">
+      <c r="A65" s="84" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -9307,7 +9268,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -9322,7 +9283,7 @@
       <c r="E66" s="2">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F66" s="72">
+      <c r="F66" s="70">
         <v>45036</v>
       </c>
       <c r="G66" s="20">
@@ -9333,7 +9294,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="86" t="s">
+      <c r="A67" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B67" s="12" t="s">
@@ -9357,7 +9318,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="90" t="s">
+      <c r="A68" s="88" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="12" t="s">
@@ -9372,7 +9333,7 @@
       <c r="E68" s="2">
         <v>0.59027777777777779</v>
       </c>
-      <c r="F68" s="72">
+      <c r="F68" s="70">
         <v>45036</v>
       </c>
       <c r="G68" s="20">
@@ -9383,7 +9344,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="86" t="s">
+      <c r="A69" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -9409,7 +9370,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="89" t="s">
+      <c r="A70" s="87" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -9431,7 +9392,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="85" t="s">
         <v>36</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -9457,7 +9418,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="87" t="s">
         <v>394</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -9479,7 +9440,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="88" t="s">
+      <c r="A73" s="86" t="s">
         <v>26</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -9505,7 +9466,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="87" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -9527,7 +9488,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -9549,7 +9510,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -9571,7 +9532,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="86" t="s">
+      <c r="A77" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -9597,7 +9558,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="86" t="s">
+      <c r="A78" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -9621,7 +9582,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="86" t="s">
+      <c r="A79" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B79" s="12" t="s">
@@ -9647,7 +9608,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="88" t="s">
+      <c r="A80" s="86" t="s">
         <v>26</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -9673,7 +9634,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="86" t="s">
+      <c r="A81" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -9699,7 +9660,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="87" t="s">
         <v>394</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -9714,14 +9675,14 @@
       <c r="E82" s="22">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F82" s="72"/>
+      <c r="F82" s="70"/>
       <c r="G82" s="20"/>
       <c r="H82" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="87" t="s">
         <v>394</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -9736,14 +9697,14 @@
       <c r="E83" s="22">
         <v>0.6875</v>
       </c>
-      <c r="F83" s="72"/>
+      <c r="F83" s="70"/>
       <c r="G83" s="20"/>
       <c r="H83" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -9765,7 +9726,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -9787,7 +9748,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="86" t="s">
+      <c r="A86" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -9813,7 +9774,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="88" t="s">
+      <c r="A87" s="86" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -9839,7 +9800,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="89" t="s">
+      <c r="A88" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -9861,7 +9822,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="86" t="s">
+      <c r="A89" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -9887,7 +9848,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="86" t="s">
+      <c r="A90" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -9911,7 +9872,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="86" t="s">
+      <c r="A91" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B91" s="12" t="s">
@@ -9937,7 +9898,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="86" t="s">
+      <c r="A92" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -9961,7 +9922,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="89" t="s">
+      <c r="A93" s="87" t="s">
         <v>394</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -9983,7 +9944,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="86" t="s">
+      <c r="A94" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B94" s="12" t="s">
@@ -10009,7 +9970,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="86" t="s">
+      <c r="A95" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B95" s="12" t="s">
@@ -10035,7 +9996,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="86" t="s">
+      <c r="A96" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B96" s="12" t="s">
@@ -10057,7 +10018,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="89" t="s">
+      <c r="A97" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -10079,7 +10040,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="89" t="s">
+      <c r="A98" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B98" s="12" t="s">
@@ -10088,20 +10049,20 @@
       <c r="C98" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="72">
+      <c r="D98" s="70">
         <v>45041</v>
       </c>
       <c r="E98" s="22">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F98" s="73"/>
+      <c r="F98" s="71"/>
       <c r="G98" s="22"/>
       <c r="H98" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="86" t="s">
+      <c r="A99" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B99" s="12" t="s">
@@ -10110,13 +10071,13 @@
       <c r="C99" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="72">
+      <c r="D99" s="70">
         <v>45041</v>
       </c>
       <c r="E99" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F99" s="72">
+      <c r="F99" s="70">
         <v>45041</v>
       </c>
       <c r="G99" s="22">
@@ -10127,7 +10088,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="89" t="s">
+      <c r="A100" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="12" t="s">
@@ -10136,20 +10097,20 @@
       <c r="C100" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="72">
+      <c r="D100" s="70">
         <v>45041</v>
       </c>
       <c r="E100" s="22">
         <v>0.58333333333333304</v>
       </c>
-      <c r="F100" s="73"/>
+      <c r="F100" s="71"/>
       <c r="G100" s="22"/>
       <c r="H100" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="89" t="s">
+      <c r="A101" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B101" s="12" t="s">
@@ -10158,20 +10119,20 @@
       <c r="C101" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="72">
+      <c r="D101" s="70">
         <v>45041</v>
       </c>
       <c r="E101" s="22">
         <v>0.625</v>
       </c>
-      <c r="F101" s="73"/>
+      <c r="F101" s="71"/>
       <c r="G101" s="22"/>
       <c r="H101" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="89" t="s">
+      <c r="A102" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B102" s="12" t="s">
@@ -10180,20 +10141,20 @@
       <c r="C102" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="72">
+      <c r="D102" s="70">
         <v>45041</v>
       </c>
       <c r="E102" s="22">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F102" s="73"/>
+      <c r="F102" s="71"/>
       <c r="G102" s="22"/>
       <c r="H102" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="89" t="s">
+      <c r="A103" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B103" s="12" t="s">
@@ -10202,33 +10163,33 @@
       <c r="C103" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D103" s="72">
+      <c r="D103" s="70">
         <v>45041</v>
       </c>
       <c r="E103" s="22">
         <v>0.70833333333333304</v>
       </c>
-      <c r="F103" s="73"/>
+      <c r="F103" s="71"/>
       <c r="G103" s="22"/>
       <c r="H103" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="86" t="s">
+      <c r="A104" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B104" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C104" s="9"/>
-      <c r="D104" s="72">
+      <c r="D104" s="70">
         <v>45041</v>
       </c>
       <c r="E104" s="22">
         <v>0.71527777777777779</v>
       </c>
-      <c r="F104" s="72">
+      <c r="F104" s="70">
         <v>45041</v>
       </c>
       <c r="G104" s="22">
@@ -10239,7 +10200,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="86" t="s">
+      <c r="A105" s="84" t="s">
         <v>402</v>
       </c>
       <c r="B105" s="12" t="s">
@@ -10251,147 +10212,147 @@
       <c r="D105" s="19">
         <v>45042</v>
       </c>
-      <c r="E105" s="81">
+      <c r="E105" s="79">
         <v>0.45833333333333331</v>
       </c>
       <c r="F105" s="19"/>
-      <c r="G105" s="81"/>
+      <c r="G105" s="79"/>
       <c r="H105" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="86" t="s">
+      <c r="A106" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="B106" s="82" t="s">
+      <c r="B106" s="80" t="s">
         <v>408</v>
       </c>
-      <c r="C106" s="82" t="s">
+      <c r="C106" s="80" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="19">
         <v>45042</v>
       </c>
-      <c r="E106" s="81">
+      <c r="E106" s="79">
         <v>0.5</v>
       </c>
       <c r="F106" s="19"/>
-      <c r="G106" s="81"/>
+      <c r="G106" s="79"/>
       <c r="H106" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="89" t="s">
+      <c r="A107" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="82" t="s">
+      <c r="B107" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="C107" s="82" t="s">
+      <c r="C107" s="80" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="19">
         <v>45042</v>
       </c>
-      <c r="E107" s="81">
+      <c r="E107" s="79">
         <v>0.52083333333333337</v>
       </c>
       <c r="F107" s="19"/>
-      <c r="G107" s="81"/>
+      <c r="G107" s="79"/>
       <c r="H107" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="82" t="s">
+      <c r="B108" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="C108" s="82" t="s">
+      <c r="C108" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D108" s="19">
         <v>45042</v>
       </c>
-      <c r="E108" s="81">
+      <c r="E108" s="79">
         <v>0.58333333333333337</v>
       </c>
       <c r="F108" s="19"/>
-      <c r="G108" s="81"/>
+      <c r="G108" s="79"/>
       <c r="H108" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="86" t="s">
+      <c r="A109" s="84" t="s">
         <v>395</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="82"/>
+      <c r="C109" s="80"/>
       <c r="D109" s="19">
         <v>45042</v>
       </c>
-      <c r="E109" s="81">
+      <c r="E109" s="79">
         <v>0.625</v>
       </c>
       <c r="F109" s="19"/>
-      <c r="G109" s="81"/>
+      <c r="G109" s="79"/>
       <c r="H109" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="89" t="s">
+      <c r="A110" s="87" t="s">
         <v>394</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C110" s="82" t="s">
+      <c r="C110" s="80" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="19">
         <v>45042</v>
       </c>
-      <c r="E110" s="81">
+      <c r="E110" s="79">
         <v>0.66666666666666663</v>
       </c>
       <c r="F110" s="19"/>
-      <c r="G110" s="81"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="86" t="s">
+      <c r="A111" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="C111" s="82" t="s">
+      <c r="C111" s="80" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="19">
         <v>45042</v>
       </c>
-      <c r="E111" s="81">
+      <c r="E111" s="79">
         <v>0.6875</v>
       </c>
       <c r="F111" s="19"/>
-      <c r="G111" s="81"/>
+      <c r="G111" s="79"/>
       <c r="H111" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="89" t="s">
+      <c r="A112" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -10413,7 +10374,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B113" s="12" t="s">
@@ -10425,17 +10386,17 @@
       <c r="D113" s="13">
         <v>45043</v>
       </c>
-      <c r="E113" s="81">
+      <c r="E113" s="79">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F113" s="83"/>
-      <c r="G113" s="81"/>
+      <c r="F113" s="81"/>
+      <c r="G113" s="79"/>
       <c r="H113" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="89" t="s">
+      <c r="A114" s="87" t="s">
         <v>420</v>
       </c>
       <c r="B114" s="10" t="s">
@@ -10445,13 +10406,13 @@
       <c r="D114" s="13">
         <v>45043</v>
       </c>
-      <c r="E114" s="81">
+      <c r="E114" s="79">
         <v>0.54166666666666663</v>
       </c>
       <c r="F114" s="19">
         <v>45044</v>
       </c>
-      <c r="G114" s="81">
+      <c r="G114" s="79">
         <v>0.375</v>
       </c>
       <c r="H114" s="12" t="s">
@@ -10459,7 +10420,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="89" t="s">
+      <c r="A115" s="87" t="s">
         <v>420</v>
       </c>
       <c r="B115" s="12" t="s">
@@ -10471,13 +10432,13 @@
       <c r="D115" s="13">
         <v>45043</v>
       </c>
-      <c r="E115" s="81">
+      <c r="E115" s="79">
         <v>0.58333333333333304</v>
       </c>
       <c r="F115" s="19">
         <v>45044</v>
       </c>
-      <c r="G115" s="81">
+      <c r="G115" s="79">
         <v>0.375</v>
       </c>
       <c r="H115" s="12" t="s">
@@ -10485,7 +10446,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="89" t="s">
+      <c r="A116" s="87" t="s">
         <v>420</v>
       </c>
       <c r="B116" s="12" t="s">
@@ -10497,13 +10458,13 @@
       <c r="D116" s="13">
         <v>45043</v>
       </c>
-      <c r="E116" s="81">
+      <c r="E116" s="79">
         <v>0.625</v>
       </c>
       <c r="F116" s="19">
         <v>45044</v>
       </c>
-      <c r="G116" s="81">
+      <c r="G116" s="79">
         <v>0.375</v>
       </c>
       <c r="H116" s="12" t="s">
@@ -10511,7 +10472,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="89" t="s">
+      <c r="A117" s="87" t="s">
         <v>420</v>
       </c>
       <c r="B117" s="12" t="s">
@@ -10523,13 +10484,13 @@
       <c r="D117" s="13">
         <v>45043</v>
       </c>
-      <c r="E117" s="81">
+      <c r="E117" s="79">
         <v>0.64583333333333337</v>
       </c>
       <c r="F117" s="19">
         <v>45044</v>
       </c>
-      <c r="G117" s="81">
+      <c r="G117" s="79">
         <v>0.375</v>
       </c>
       <c r="H117" s="12" t="s">
@@ -10537,7 +10498,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="89" t="s">
+      <c r="A118" s="87" t="s">
         <v>420</v>
       </c>
       <c r="B118" s="12" t="s">
@@ -10549,13 +10510,13 @@
       <c r="D118" s="13">
         <v>45043</v>
       </c>
-      <c r="E118" s="81">
+      <c r="E118" s="79">
         <v>0.66666666666666663</v>
       </c>
       <c r="F118" s="19">
         <v>45044</v>
       </c>
-      <c r="G118" s="81">
+      <c r="G118" s="79">
         <v>0.375</v>
       </c>
       <c r="H118" s="12" t="s">
@@ -10563,7 +10524,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="89" t="s">
+      <c r="A119" s="87" t="s">
         <v>420</v>
       </c>
       <c r="B119" s="10" t="s">
@@ -10573,13 +10534,13 @@
       <c r="D119" s="13">
         <v>45043</v>
       </c>
-      <c r="E119" s="81">
+      <c r="E119" s="79">
         <v>0.70833333333333337</v>
       </c>
       <c r="F119" s="19">
         <v>45043</v>
       </c>
-      <c r="G119" s="81">
+      <c r="G119" s="79">
         <v>0.71597222222222223</v>
       </c>
       <c r="H119" s="12" t="s">
@@ -10587,7 +10548,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="89" t="s">
+      <c r="A120" s="87" t="s">
         <v>425</v>
       </c>
       <c r="B120" s="10" t="s">
@@ -10597,7 +10558,7 @@
       <c r="D120" s="19">
         <v>45044</v>
       </c>
-      <c r="E120" s="81">
+      <c r="E120" s="79">
         <v>0.33333333333333331</v>
       </c>
       <c r="F120" s="5"/>
@@ -10607,7 +10568,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="89" t="s">
+      <c r="A121" s="87" t="s">
         <v>394</v>
       </c>
       <c r="B121" s="12" t="s">
@@ -10619,7 +10580,7 @@
       <c r="D121" s="19">
         <v>45044</v>
       </c>
-      <c r="E121" s="81">
+      <c r="E121" s="79">
         <v>0.375</v>
       </c>
       <c r="F121" s="5"/>
@@ -10629,7 +10590,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="89" t="s">
+      <c r="A122" s="87" t="s">
         <v>426</v>
       </c>
       <c r="B122" s="10" t="s">
@@ -10639,7 +10600,7 @@
       <c r="D122" s="19">
         <v>45044</v>
       </c>
-      <c r="E122" s="81">
+      <c r="E122" s="79">
         <v>0.41666666666666669</v>
       </c>
       <c r="F122" s="5"/>
@@ -10649,7 +10610,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="89" t="s">
+      <c r="A123" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -10661,7 +10622,7 @@
       <c r="D123" s="19">
         <v>45044</v>
       </c>
-      <c r="E123" s="81">
+      <c r="E123" s="79">
         <v>0.45833333333333331</v>
       </c>
       <c r="F123" s="5"/>
@@ -10671,7 +10632,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="89" t="s">
+      <c r="A124" s="87" t="s">
         <v>394</v>
       </c>
       <c r="B124" s="10" t="s">
@@ -10683,7 +10644,7 @@
       <c r="D124" s="19">
         <v>45044</v>
       </c>
-      <c r="E124" s="81">
+      <c r="E124" s="79">
         <v>0.54166666666666663</v>
       </c>
       <c r="F124" s="19"/>
@@ -10693,7 +10654,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="89" t="s">
+      <c r="A125" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B125" s="10" t="s">
@@ -10705,7 +10666,7 @@
       <c r="D125" s="19">
         <v>45044</v>
       </c>
-      <c r="E125" s="81">
+      <c r="E125" s="79">
         <v>0.58333333333333337</v>
       </c>
       <c r="F125" s="19"/>
@@ -10715,7 +10676,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="89" t="s">
+      <c r="A126" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B126" s="12" t="s">
@@ -10727,7 +10688,7 @@
       <c r="D126" s="19">
         <v>45044</v>
       </c>
-      <c r="E126" s="81">
+      <c r="E126" s="79">
         <v>0.66666666666666663</v>
       </c>
       <c r="F126" s="19"/>
@@ -10737,20 +10698,20 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="100" t="s">
+      <c r="A127" s="98" t="s">
         <v>395</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C127" s="10"/>
-      <c r="D127" s="72">
+      <c r="D127" s="70">
         <v>45048</v>
       </c>
       <c r="E127" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F127" s="72">
+      <c r="F127" s="70">
         <v>45048</v>
       </c>
       <c r="G127" s="22">
@@ -10761,29 +10722,29 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="100" t="s">
+      <c r="A128" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="B128" s="84" t="s">
+      <c r="B128" s="82" t="s">
         <v>380</v>
       </c>
-      <c r="C128" s="84" t="s">
+      <c r="C128" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="72">
+      <c r="D128" s="70">
         <v>45048</v>
       </c>
       <c r="E128" s="7">
         <v>0.375</v>
       </c>
-      <c r="F128" s="72"/>
+      <c r="F128" s="70"/>
       <c r="G128" s="10"/>
       <c r="H128" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="100" t="s">
+      <c r="A129" s="98" t="s">
         <v>18</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -10792,20 +10753,20 @@
       <c r="C129" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="72">
+      <c r="D129" s="70">
         <v>45048</v>
       </c>
       <c r="E129" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F129" s="72"/>
+      <c r="F129" s="70"/>
       <c r="G129" s="10"/>
       <c r="H129" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="100" t="s">
+      <c r="A130" s="98" t="s">
         <v>394</v>
       </c>
       <c r="B130" s="10" t="s">
@@ -10814,20 +10775,20 @@
       <c r="C130" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="72">
+      <c r="D130" s="70">
         <v>45048</v>
       </c>
       <c r="E130" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F130" s="72"/>
+      <c r="F130" s="70"/>
       <c r="G130" s="10"/>
       <c r="H130" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="100" t="s">
+      <c r="A131" s="98" t="s">
         <v>394</v>
       </c>
       <c r="B131" s="10" t="s">
@@ -10836,20 +10797,20 @@
       <c r="C131" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="72">
+      <c r="D131" s="70">
         <v>45048</v>
       </c>
       <c r="E131" s="7">
         <v>0.500000000000001</v>
       </c>
-      <c r="F131" s="72"/>
+      <c r="F131" s="70"/>
       <c r="G131" s="10"/>
       <c r="H131" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="100" t="s">
+      <c r="A132" s="98" t="s">
         <v>394</v>
       </c>
       <c r="B132" s="10" t="s">
@@ -10858,20 +10819,20 @@
       <c r="C132" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="72">
+      <c r="D132" s="70">
         <v>45048</v>
       </c>
       <c r="E132" s="7">
         <v>0.625</v>
       </c>
-      <c r="F132" s="72"/>
+      <c r="F132" s="70"/>
       <c r="G132" s="10"/>
       <c r="H132" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="100" t="s">
+      <c r="A133" s="98" t="s">
         <v>394</v>
       </c>
       <c r="B133" s="10" t="s">
@@ -10880,151 +10841,151 @@
       <c r="C133" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="72">
+      <c r="D133" s="70">
         <v>45049</v>
       </c>
       <c r="E133" s="22">
         <v>0.375</v>
       </c>
-      <c r="F133" s="72"/>
+      <c r="F133" s="70"/>
       <c r="G133" s="10"/>
       <c r="H133" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="100" t="s">
+      <c r="A134" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="B134" s="74" t="s">
+      <c r="B134" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="C134" s="74" t="s">
+      <c r="C134" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="72">
+      <c r="D134" s="70">
         <v>45049</v>
       </c>
-      <c r="E134" s="85">
+      <c r="E134" s="83">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F134" s="80"/>
-      <c r="G134" s="74"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="72"/>
       <c r="H134" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="100" t="s">
+      <c r="A135" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="B135" s="74" t="s">
+      <c r="B135" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="C135" s="74" t="s">
+      <c r="C135" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="72">
+      <c r="D135" s="70">
         <v>45049</v>
       </c>
-      <c r="E135" s="85">
+      <c r="E135" s="83">
         <v>0.5</v>
       </c>
-      <c r="F135" s="80"/>
-      <c r="G135" s="74"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="72"/>
       <c r="H135" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="100" t="s">
+      <c r="A136" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="B136" s="74" t="s">
+      <c r="B136" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C136" s="74" t="s">
+      <c r="C136" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="72">
+      <c r="D136" s="70">
         <v>45049</v>
       </c>
-      <c r="E136" s="85">
+      <c r="E136" s="83">
         <v>0.54166666666666696</v>
       </c>
-      <c r="F136" s="80"/>
-      <c r="G136" s="74"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="72"/>
       <c r="H136" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="100" t="s">
+      <c r="A137" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B137" s="74" t="s">
+      <c r="B137" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="74" t="s">
+      <c r="C137" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="72">
+      <c r="D137" s="70">
         <v>45049</v>
       </c>
-      <c r="E137" s="85">
+      <c r="E137" s="83">
         <v>0.58333333333333304</v>
       </c>
-      <c r="F137" s="80"/>
-      <c r="G137" s="74"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="72"/>
       <c r="H137" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="100" t="s">
+      <c r="A138" s="98" t="s">
         <v>394</v>
       </c>
-      <c r="B138" s="74" t="s">
+      <c r="B138" s="72" t="s">
         <v>415</v>
       </c>
-      <c r="C138" s="74" t="s">
+      <c r="C138" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="72">
+      <c r="D138" s="70">
         <v>45049</v>
       </c>
-      <c r="E138" s="85">
+      <c r="E138" s="83">
         <v>0.625</v>
       </c>
-      <c r="F138" s="80"/>
-      <c r="G138" s="74"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="72"/>
       <c r="H138" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="101" t="s">
+      <c r="A139" s="99" t="s">
         <v>431</v>
       </c>
-      <c r="B139" s="74" t="s">
+      <c r="B139" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="C139" s="74" t="s">
+      <c r="C139" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D139" s="72">
+      <c r="D139" s="70">
         <v>45049</v>
       </c>
-      <c r="E139" s="93">
+      <c r="E139" s="91">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F139" s="80">
+      <c r="F139" s="78">
         <v>45049</v>
       </c>
-      <c r="G139" s="85">
+      <c r="G139" s="83">
         <v>0.66875000000000007</v>
       </c>
-      <c r="H139" s="92" t="s">
+      <c r="H139" s="90" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11091,7 +11052,7 @@
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="81">
         <v>44964</v>
       </c>
       <c r="D2" s="33">
@@ -11117,7 +11078,7 @@
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="81">
         <v>44970</v>
       </c>
       <c r="D3" s="33">
@@ -11143,7 +11104,7 @@
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="81">
         <v>44971</v>
       </c>
       <c r="D4" s="33">
@@ -11169,7 +11130,7 @@
       <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="81">
         <v>44971</v>
       </c>
       <c r="D5" s="33">
@@ -11195,7 +11156,7 @@
       <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="81">
         <v>44971</v>
       </c>
       <c r="D6" s="33">
@@ -11221,7 +11182,7 @@
       <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="81">
         <v>44972</v>
       </c>
       <c r="D7" s="33">
@@ -11247,7 +11208,7 @@
       <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="81">
         <v>44972</v>
       </c>
       <c r="D8" s="33">
@@ -11273,7 +11234,7 @@
       <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="81">
         <v>44973</v>
       </c>
       <c r="D9" s="33">
@@ -11299,7 +11260,7 @@
       <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="81">
         <v>44973</v>
       </c>
       <c r="D10" s="33">
@@ -11325,7 +11286,7 @@
       <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="81">
         <v>44973</v>
       </c>
       <c r="D11" s="33">
@@ -11351,7 +11312,7 @@
       <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="81">
         <v>44973</v>
       </c>
       <c r="D12" s="33">
@@ -11377,7 +11338,7 @@
       <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="81">
         <v>44981</v>
       </c>
       <c r="D13" s="33">
@@ -11403,7 +11364,7 @@
       <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="81">
         <v>44981</v>
       </c>
       <c r="D14" s="33">
@@ -11429,7 +11390,7 @@
       <c r="B15" s="5">
         <v>14</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="81">
         <v>45007</v>
       </c>
       <c r="D15" s="33">
@@ -11455,7 +11416,7 @@
       <c r="B16" s="5">
         <v>15</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="81">
         <v>45007</v>
       </c>
       <c r="D16" s="33">
@@ -11481,7 +11442,7 @@
       <c r="B17" s="5">
         <v>16</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="81">
         <v>45007</v>
       </c>
       <c r="D17" s="33">
@@ -11507,7 +11468,7 @@
       <c r="B18" s="5">
         <v>17</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="81">
         <v>45020</v>
       </c>
       <c r="D18" s="33">
@@ -11533,7 +11494,7 @@
       <c r="B19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="83">
+      <c r="C19" s="81">
         <v>45020</v>
       </c>
       <c r="D19" s="33">
@@ -11559,7 +11520,7 @@
       <c r="B20" s="5">
         <v>19</v>
       </c>
-      <c r="C20" s="83">
+      <c r="C20" s="81">
         <v>45020</v>
       </c>
       <c r="D20" s="33">
@@ -11585,7 +11546,7 @@
       <c r="B21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="81">
         <v>45021</v>
       </c>
       <c r="D21" s="33">
@@ -11611,7 +11572,7 @@
       <c r="B22" s="5">
         <v>21</v>
       </c>
-      <c r="C22" s="83">
+      <c r="C22" s="81">
         <v>45021</v>
       </c>
       <c r="D22" s="33">
@@ -11637,7 +11598,7 @@
       <c r="B23" s="5">
         <v>22</v>
       </c>
-      <c r="C23" s="83">
+      <c r="C23" s="81">
         <v>45022</v>
       </c>
       <c r="D23" s="33">
@@ -11663,7 +11624,7 @@
       <c r="B24" s="5">
         <v>23</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="81">
         <v>45022</v>
       </c>
       <c r="D24" s="33">
@@ -11689,7 +11650,7 @@
       <c r="B25" s="5">
         <v>24</v>
       </c>
-      <c r="C25" s="83">
+      <c r="C25" s="81">
         <v>45022</v>
       </c>
       <c r="D25" s="33">
@@ -11715,7 +11676,7 @@
       <c r="B26" s="5">
         <v>25</v>
       </c>
-      <c r="C26" s="83">
+      <c r="C26" s="81">
         <v>45026</v>
       </c>
       <c r="D26" s="33">
@@ -11741,7 +11702,7 @@
       <c r="B27" s="5">
         <v>26</v>
       </c>
-      <c r="C27" s="83">
+      <c r="C27" s="81">
         <v>45026</v>
       </c>
       <c r="D27" s="33">
@@ -11767,7 +11728,7 @@
       <c r="B28" s="5">
         <v>27</v>
       </c>
-      <c r="C28" s="83">
+      <c r="C28" s="81">
         <v>45026</v>
       </c>
       <c r="D28" s="33">
@@ -11793,7 +11754,7 @@
       <c r="B29" s="5">
         <v>28</v>
       </c>
-      <c r="C29" s="83">
+      <c r="C29" s="81">
         <v>45026</v>
       </c>
       <c r="D29" s="33">
@@ -11819,7 +11780,7 @@
       <c r="B30" s="5">
         <v>29</v>
       </c>
-      <c r="C30" s="83">
+      <c r="C30" s="81">
         <v>45026</v>
       </c>
       <c r="D30" s="33">
@@ -11845,7 +11806,7 @@
       <c r="B31" s="5">
         <v>30</v>
       </c>
-      <c r="C31" s="83">
+      <c r="C31" s="81">
         <v>45026</v>
       </c>
       <c r="D31" s="33">
@@ -11871,7 +11832,7 @@
       <c r="B32" s="5">
         <v>31</v>
       </c>
-      <c r="C32" s="83">
+      <c r="C32" s="81">
         <v>45026</v>
       </c>
       <c r="D32" s="33">
@@ -11897,7 +11858,7 @@
       <c r="B33" s="5">
         <v>32</v>
       </c>
-      <c r="C33" s="83">
+      <c r="C33" s="81">
         <v>45026</v>
       </c>
       <c r="D33" s="33">
@@ -11923,7 +11884,7 @@
       <c r="B34" s="5">
         <v>33</v>
       </c>
-      <c r="C34" s="83">
+      <c r="C34" s="81">
         <v>45026</v>
       </c>
       <c r="D34" s="33">
@@ -11949,7 +11910,7 @@
       <c r="B35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="83">
+      <c r="C35" s="81">
         <v>45027</v>
       </c>
       <c r="D35" s="33">
@@ -11975,7 +11936,7 @@
       <c r="B36" s="5">
         <v>35</v>
       </c>
-      <c r="C36" s="83">
+      <c r="C36" s="81">
         <v>45027</v>
       </c>
       <c r="D36" s="33">
@@ -12001,7 +11962,7 @@
       <c r="B37" s="5">
         <v>36</v>
       </c>
-      <c r="C37" s="83">
+      <c r="C37" s="81">
         <v>45027</v>
       </c>
       <c r="D37" s="33">
@@ -12027,7 +11988,7 @@
       <c r="B38" s="5">
         <v>37</v>
       </c>
-      <c r="C38" s="83">
+      <c r="C38" s="81">
         <v>45028</v>
       </c>
       <c r="D38" s="33">
@@ -12053,7 +12014,7 @@
       <c r="B39" s="5">
         <v>38</v>
       </c>
-      <c r="C39" s="83">
+      <c r="C39" s="81">
         <v>45028</v>
       </c>
       <c r="D39" s="33">
@@ -12079,7 +12040,7 @@
       <c r="B40" s="5">
         <v>39</v>
       </c>
-      <c r="C40" s="83">
+      <c r="C40" s="81">
         <v>45028</v>
       </c>
       <c r="D40" s="33">
@@ -12105,7 +12066,7 @@
       <c r="B41" s="5">
         <v>40</v>
       </c>
-      <c r="C41" s="83">
+      <c r="C41" s="81">
         <v>45028</v>
       </c>
       <c r="D41" s="33">
@@ -12131,7 +12092,7 @@
       <c r="B42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="83">
+      <c r="C42" s="81">
         <v>45028</v>
       </c>
       <c r="D42" s="33">
@@ -12157,7 +12118,7 @@
       <c r="B43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="83">
+      <c r="C43" s="81">
         <v>45029</v>
       </c>
       <c r="D43" s="33">
@@ -12183,7 +12144,7 @@
       <c r="B44" s="5">
         <v>43</v>
       </c>
-      <c r="C44" s="83">
+      <c r="C44" s="81">
         <v>45029</v>
       </c>
       <c r="D44" s="33">
@@ -12209,7 +12170,7 @@
       <c r="B45" s="5">
         <v>44</v>
       </c>
-      <c r="C45" s="83">
+      <c r="C45" s="81">
         <v>45029</v>
       </c>
       <c r="D45" s="33">
@@ -12235,7 +12196,7 @@
       <c r="B46" s="5">
         <v>45</v>
       </c>
-      <c r="C46" s="83">
+      <c r="C46" s="81">
         <v>45029</v>
       </c>
       <c r="D46" s="33">
@@ -12261,7 +12222,7 @@
       <c r="B47" s="5">
         <v>46</v>
       </c>
-      <c r="C47" s="83">
+      <c r="C47" s="81">
         <v>45030</v>
       </c>
       <c r="D47" s="33">
@@ -12287,7 +12248,7 @@
       <c r="B48" s="5">
         <v>47</v>
       </c>
-      <c r="C48" s="83">
+      <c r="C48" s="81">
         <v>45030</v>
       </c>
       <c r="D48" s="33">
@@ -12313,7 +12274,7 @@
       <c r="B49" s="5">
         <v>48</v>
       </c>
-      <c r="C49" s="83">
+      <c r="C49" s="81">
         <v>45030</v>
       </c>
       <c r="D49" s="33">
@@ -12339,7 +12300,7 @@
       <c r="B50" s="5">
         <v>49</v>
       </c>
-      <c r="C50" s="83">
+      <c r="C50" s="81">
         <v>45030</v>
       </c>
       <c r="D50" s="33">
@@ -12365,7 +12326,7 @@
       <c r="B51" s="5">
         <v>50</v>
       </c>
-      <c r="C51" s="83">
+      <c r="C51" s="81">
         <v>45033</v>
       </c>
       <c r="D51" s="33">
@@ -12391,7 +12352,7 @@
       <c r="B52" s="5">
         <v>51</v>
       </c>
-      <c r="C52" s="83">
+      <c r="C52" s="81">
         <v>45033</v>
       </c>
       <c r="D52" s="33">
@@ -12417,7 +12378,7 @@
       <c r="B53" s="5">
         <v>52</v>
       </c>
-      <c r="C53" s="83">
+      <c r="C53" s="81">
         <v>45033</v>
       </c>
       <c r="D53" s="33">
@@ -12443,7 +12404,7 @@
       <c r="B54" s="5">
         <v>53</v>
       </c>
-      <c r="C54" s="83">
+      <c r="C54" s="81">
         <v>45033</v>
       </c>
       <c r="D54" s="33">
@@ -12469,7 +12430,7 @@
       <c r="B55" s="5">
         <v>54</v>
       </c>
-      <c r="C55" s="83">
+      <c r="C55" s="81">
         <v>45033</v>
       </c>
       <c r="D55" s="33">
@@ -12495,7 +12456,7 @@
       <c r="B56" s="5">
         <v>55</v>
       </c>
-      <c r="C56" s="83">
+      <c r="C56" s="81">
         <v>45034</v>
       </c>
       <c r="D56" s="33">
@@ -12521,7 +12482,7 @@
       <c r="B57" s="5">
         <v>56</v>
       </c>
-      <c r="C57" s="83">
+      <c r="C57" s="81">
         <v>45034</v>
       </c>
       <c r="D57" s="33">
@@ -12547,7 +12508,7 @@
       <c r="B58" s="5">
         <v>57</v>
       </c>
-      <c r="C58" s="83">
+      <c r="C58" s="81">
         <v>45034</v>
       </c>
       <c r="D58" s="33">
@@ -12573,7 +12534,7 @@
       <c r="B59" s="5">
         <v>58</v>
       </c>
-      <c r="C59" s="83">
+      <c r="C59" s="81">
         <v>45034</v>
       </c>
       <c r="D59" s="33">
@@ -12599,7 +12560,7 @@
       <c r="B60" s="5">
         <v>59</v>
       </c>
-      <c r="C60" s="83">
+      <c r="C60" s="81">
         <v>45035</v>
       </c>
       <c r="D60" s="33">
@@ -12625,7 +12586,7 @@
       <c r="B61" s="5">
         <v>60</v>
       </c>
-      <c r="C61" s="83">
+      <c r="C61" s="81">
         <v>45035</v>
       </c>
       <c r="D61" s="33">
@@ -12651,7 +12612,7 @@
       <c r="B62" s="5">
         <v>61</v>
       </c>
-      <c r="C62" s="83">
+      <c r="C62" s="81">
         <v>45035</v>
       </c>
       <c r="D62" s="33">
@@ -12677,7 +12638,7 @@
       <c r="B63" s="5">
         <v>62</v>
       </c>
-      <c r="C63" s="83">
+      <c r="C63" s="81">
         <v>45035</v>
       </c>
       <c r="D63" s="33">
@@ -12703,7 +12664,7 @@
       <c r="B64" s="5">
         <v>63</v>
       </c>
-      <c r="C64" s="83">
+      <c r="C64" s="81">
         <v>45035</v>
       </c>
       <c r="D64" s="33">
@@ -12729,7 +12690,7 @@
       <c r="B65" s="5">
         <v>64</v>
       </c>
-      <c r="C65" s="83">
+      <c r="C65" s="81">
         <v>45035</v>
       </c>
       <c r="D65" s="33">
@@ -12755,7 +12716,7 @@
       <c r="B66" s="5">
         <v>65</v>
       </c>
-      <c r="C66" s="83">
+      <c r="C66" s="81">
         <v>45036</v>
       </c>
       <c r="D66" s="33">
@@ -12781,7 +12742,7 @@
       <c r="B67" s="5">
         <v>66</v>
       </c>
-      <c r="C67" s="83">
+      <c r="C67" s="81">
         <v>45036</v>
       </c>
       <c r="D67" s="33">
@@ -12807,7 +12768,7 @@
       <c r="B68" s="5">
         <v>67</v>
       </c>
-      <c r="C68" s="83">
+      <c r="C68" s="81">
         <v>45036</v>
       </c>
       <c r="D68" s="33">
@@ -12833,7 +12794,7 @@
       <c r="B69" s="5">
         <v>68</v>
       </c>
-      <c r="C69" s="83">
+      <c r="C69" s="81">
         <v>45036</v>
       </c>
       <c r="D69" s="33">
@@ -12859,7 +12820,7 @@
       <c r="B70" s="5">
         <v>69</v>
       </c>
-      <c r="C70" s="83">
+      <c r="C70" s="81">
         <v>45036</v>
       </c>
       <c r="D70" s="33">
@@ -12885,7 +12846,7 @@
       <c r="B71" s="5">
         <v>70</v>
       </c>
-      <c r="C71" s="83">
+      <c r="C71" s="81">
         <v>45036</v>
       </c>
       <c r="D71" s="33">
@@ -12911,7 +12872,7 @@
       <c r="B72" s="5">
         <v>71</v>
       </c>
-      <c r="C72" s="83">
+      <c r="C72" s="81">
         <v>45036</v>
       </c>
       <c r="D72" s="33">
@@ -12937,7 +12898,7 @@
       <c r="B73" s="5">
         <v>72</v>
       </c>
-      <c r="C73" s="83">
+      <c r="C73" s="81">
         <v>45040</v>
       </c>
       <c r="D73" s="33">
@@ -12963,7 +12924,7 @@
       <c r="B74" s="5">
         <v>73</v>
       </c>
-      <c r="C74" s="83">
+      <c r="C74" s="81">
         <v>45040</v>
       </c>
       <c r="D74" s="33">
@@ -12989,7 +12950,7 @@
       <c r="B75" s="5">
         <v>74</v>
       </c>
-      <c r="C75" s="83">
+      <c r="C75" s="81">
         <v>45040</v>
       </c>
       <c r="D75" s="33">
@@ -13015,7 +12976,7 @@
       <c r="B76" s="5">
         <v>75</v>
       </c>
-      <c r="C76" s="83">
+      <c r="C76" s="81">
         <v>45040</v>
       </c>
       <c r="D76" s="33">
@@ -13041,7 +13002,7 @@
       <c r="B77" s="5">
         <v>76</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="81">
         <v>45040</v>
       </c>
       <c r="D77" s="33">
@@ -13067,7 +13028,7 @@
       <c r="B78" s="5">
         <v>77</v>
       </c>
-      <c r="C78" s="83">
+      <c r="C78" s="81">
         <v>45041</v>
       </c>
       <c r="D78" s="33">
@@ -13093,7 +13054,7 @@
       <c r="B79" s="5">
         <v>78</v>
       </c>
-      <c r="C79" s="83">
+      <c r="C79" s="81">
         <v>45041</v>
       </c>
       <c r="D79" s="33">
@@ -13119,7 +13080,7 @@
       <c r="B80" s="5">
         <v>79</v>
       </c>
-      <c r="C80" s="83">
+      <c r="C80" s="81">
         <v>45041</v>
       </c>
       <c r="D80" s="33">
@@ -13145,7 +13106,7 @@
       <c r="B81" s="5">
         <v>80</v>
       </c>
-      <c r="C81" s="83">
+      <c r="C81" s="81">
         <v>45041</v>
       </c>
       <c r="D81" s="37">
@@ -13171,7 +13132,7 @@
       <c r="B82" s="5">
         <v>81</v>
       </c>
-      <c r="C82" s="83">
+      <c r="C82" s="81">
         <v>45042</v>
       </c>
       <c r="D82" s="33">
@@ -13197,7 +13158,7 @@
       <c r="B83" s="5">
         <v>82</v>
       </c>
-      <c r="C83" s="83">
+      <c r="C83" s="81">
         <v>45042</v>
       </c>
       <c r="D83" s="33">
@@ -13223,7 +13184,7 @@
       <c r="B84" s="5">
         <v>83</v>
       </c>
-      <c r="C84" s="83">
+      <c r="C84" s="81">
         <v>45042</v>
       </c>
       <c r="D84" s="33">
@@ -13249,7 +13210,7 @@
       <c r="B85" s="5">
         <v>84</v>
       </c>
-      <c r="C85" s="83">
+      <c r="C85" s="81">
         <v>45042</v>
       </c>
       <c r="D85" s="37">
@@ -13275,7 +13236,7 @@
       <c r="B86" s="5">
         <v>85</v>
       </c>
-      <c r="C86" s="83">
+      <c r="C86" s="81">
         <v>45043</v>
       </c>
       <c r="D86" s="33">
@@ -13301,7 +13262,7 @@
       <c r="B87" s="5">
         <v>86</v>
       </c>
-      <c r="C87" s="83">
+      <c r="C87" s="81">
         <v>45043</v>
       </c>
       <c r="D87" s="37">
@@ -13310,7 +13271,7 @@
       <c r="E87" s="38">
         <v>45043.39707175926</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F87" s="57">
         <v>6.5277777757728472E-3</v>
       </c>
       <c r="G87" s="39" t="s">
@@ -13327,7 +13288,7 @@
       <c r="B88" s="5">
         <v>87</v>
       </c>
-      <c r="C88" s="83">
+      <c r="C88" s="81">
         <v>45044</v>
       </c>
       <c r="D88" s="33">
@@ -13354,7 +13315,7 @@
       <c r="B89" s="5">
         <v>88</v>
       </c>
-      <c r="C89" s="83">
+      <c r="C89" s="81">
         <v>45044</v>
       </c>
       <c r="D89" s="33">
@@ -13380,7 +13341,7 @@
       <c r="B90" s="5">
         <v>89</v>
       </c>
-      <c r="C90" s="83">
+      <c r="C90" s="81">
         <v>45044</v>
       </c>
       <c r="D90" s="37">
@@ -13389,7 +13350,7 @@
       <c r="E90" s="38">
         <v>45044.414074074077</v>
       </c>
-      <c r="F90" s="59">
+      <c r="F90" s="57">
         <f>E90-D90</f>
         <v>7.0023148145992309E-3</v>
       </c>
@@ -13407,7 +13368,7 @@
       <c r="B91" s="5">
         <v>90</v>
       </c>
-      <c r="C91" s="83">
+      <c r="C91" s="81">
         <v>45046</v>
       </c>
       <c r="D91" s="37">
@@ -13416,7 +13377,7 @@
       <c r="E91" s="38">
         <v>45048.397222222222</v>
       </c>
-      <c r="F91" s="59">
+      <c r="F91" s="57">
         <f>Tb_Quedas[[#This Row],[Terminou]]-Tb_Quedas[[#This Row],[Começou]]</f>
         <v>1.6472222222218988</v>
       </c>
@@ -13434,7 +13395,7 @@
       <c r="B92" s="5">
         <v>91</v>
       </c>
-      <c r="C92" s="83">
+      <c r="C92" s="81">
         <v>45048</v>
       </c>
       <c r="D92" s="37">
@@ -13443,7 +13404,7 @@
       <c r="E92" s="38">
         <v>45048.395833333336</v>
       </c>
-      <c r="F92" s="59">
+      <c r="F92" s="57">
         <f>Tb_Quedas[[#This Row],[Terminou]]-Tb_Quedas[[#This Row],[Começou]]</f>
         <v>6.25E-2</v>
       </c>
@@ -13461,7 +13422,7 @@
       <c r="B93" s="5">
         <v>92</v>
       </c>
-      <c r="C93" s="83">
+      <c r="C93" s="81">
         <v>45048</v>
       </c>
       <c r="D93" s="37">
@@ -13470,7 +13431,7 @@
       <c r="E93" s="38">
         <v>45048.4375</v>
       </c>
-      <c r="F93" s="59">
+      <c r="F93" s="57">
         <f>Tb_Quedas[[#This Row],[Terminou]]-Tb_Quedas[[#This Row],[Começou]]</f>
         <v>1.3888888861401938E-3</v>
       </c>
@@ -13488,7 +13449,7 @@
       <c r="B94" s="5">
         <v>93</v>
       </c>
-      <c r="C94" s="83">
+      <c r="C94" s="81">
         <v>45048</v>
       </c>
       <c r="D94" s="37">
@@ -13497,7 +13458,7 @@
       <c r="E94" s="38">
         <v>45048.697916666664</v>
       </c>
-      <c r="F94" s="59">
+      <c r="F94" s="57">
         <f>Tb_Quedas[[#This Row],[Terminou]]-Tb_Quedas[[#This Row],[Começou]]</f>
         <v>3.125E-2</v>
       </c>
@@ -13515,16 +13476,16 @@
       <c r="B95" s="5">
         <v>94</v>
       </c>
-      <c r="C95" s="83">
+      <c r="C95" s="81">
         <v>45049</v>
       </c>
-      <c r="D95" s="76">
+      <c r="D95" s="74">
         <v>45049.361712962964</v>
       </c>
-      <c r="E95" s="76">
+      <c r="E95" s="74">
         <v>45049.368657407409</v>
       </c>
-      <c r="F95" s="59">
+      <c r="F95" s="57">
         <f>Tb_Quedas[[#This Row],[Terminou]]-Tb_Quedas[[#This Row],[Começou]]</f>
         <v>6.9444444452528842E-3</v>
       </c>
@@ -13542,16 +13503,16 @@
       <c r="B96" s="5">
         <v>95</v>
       </c>
-      <c r="C96" s="83">
+      <c r="C96" s="81">
         <v>45049</v>
       </c>
-      <c r="D96" s="76">
+      <c r="D96" s="74">
         <v>45049.413599537038</v>
       </c>
       <c r="E96" s="38">
         <v>45049.413773148146</v>
       </c>
-      <c r="F96" s="59">
+      <c r="F96" s="57">
         <f>Tb_Quedas[[#This Row],[Terminou]]-Tb_Quedas[[#This Row],[Começou]]</f>
         <v>1.7361110803904012E-4</v>
       </c>
@@ -13569,16 +13530,16 @@
       <c r="B97" s="5">
         <v>96</v>
       </c>
-      <c r="C97" s="83">
+      <c r="C97" s="81">
         <v>45049</v>
       </c>
-      <c r="D97" s="76">
+      <c r="D97" s="74">
         <v>45049.461111111108</v>
       </c>
       <c r="E97" s="38">
         <v>45049.479166666664</v>
       </c>
-      <c r="F97" s="59">
+      <c r="F97" s="57">
         <f t="shared" ref="F97:F98" si="0">E97-D97</f>
         <v>1.8055555556202307E-2</v>
       </c>
@@ -13596,7 +13557,7 @@
       <c r="B98" s="5">
         <v>97</v>
       </c>
-      <c r="C98" s="83">
+      <c r="C98" s="81">
         <v>45049</v>
       </c>
       <c r="D98" s="33">
@@ -13623,10 +13584,10 @@
       <c r="B99" s="5">
         <v>98</v>
       </c>
-      <c r="C99" s="83">
+      <c r="C99" s="81">
         <v>45050</v>
       </c>
-      <c r="D99" s="103">
+      <c r="D99" s="101">
         <v>45050.302083333343</v>
       </c>
       <c r="E99" s="34">
@@ -13649,10 +13610,10 @@
       <c r="B100" s="5">
         <v>99</v>
       </c>
-      <c r="C100" s="83">
+      <c r="C100" s="81">
         <v>45050</v>
       </c>
-      <c r="D100" s="103">
+      <c r="D100" s="101">
         <v>45050.395833333343</v>
       </c>
       <c r="E100" s="34">
@@ -13675,10 +13636,10 @@
       <c r="B101" s="5">
         <v>100</v>
       </c>
-      <c r="C101" s="83">
+      <c r="C101" s="81">
         <v>45050</v>
       </c>
-      <c r="D101" s="103">
+      <c r="D101" s="101">
         <v>45050.448795312499</v>
       </c>
       <c r="E101" s="34">
@@ -13701,10 +13662,10 @@
       <c r="B102" s="5">
         <v>101</v>
       </c>
-      <c r="C102" s="83">
+      <c r="C102" s="81">
         <v>45050</v>
       </c>
-      <c r="D102" s="103">
+      <c r="D102" s="101">
         <v>45050.453254687258</v>
       </c>
       <c r="E102" s="34">
@@ -13727,16 +13688,16 @@
       <c r="B103" s="5">
         <v>102</v>
       </c>
-      <c r="C103" s="83">
+      <c r="C103" s="81">
         <v>45050</v>
       </c>
-      <c r="D103" s="76">
+      <c r="D103" s="74">
         <v>45050.583333333336</v>
       </c>
       <c r="E103" s="38">
         <v>45050.614583333336</v>
       </c>
-      <c r="F103" s="59" t="e">
+      <c r="F103" s="57" t="e">
         <f>[1]!Tabela1[[#This Row],[Terminou]]-[1]!Tabela1[[#This Row],[Começou]]</f>
         <v>#REF!</v>
       </c>
@@ -13763,167 +13724,142 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:G8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>373</v>
+      </c>
       <c r="B1" s="45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>373</v>
+        <v>108</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="43">
-        <v>1</v>
-      </c>
-      <c r="C2" s="41" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="C2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="G2" s="65"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="43">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="E2" s="63"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="G3" s="65"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="43">
-        <v>3</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="B4" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="G4" s="65"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="43">
-        <v>4</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="43">
-        <v>5</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="43">
-        <v>6</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="E6" s="63"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="B7" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="54">
-        <v>7</v>
-      </c>
-      <c r="C8" s="55" t="s">
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="C8" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="D8" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="G8" s="66">
+      <c r="E8" s="64">
         <v>45043</v>
       </c>
     </row>
@@ -13945,7 +13881,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="47" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
@@ -13956,60 +13892,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="49" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="62">
+      <c r="B2" s="60">
         <v>1</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="50">
         <v>84</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="59">
         <v>44649</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="59">
         <v>44664</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="H2" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="58" t="s">
+      <c r="H2" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="56" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <v>2</v>
       </c>
       <c r="C3" s="5">
@@ -14035,7 +13971,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="64">
+      <c r="B4" s="62">
         <v>3</v>
       </c>
       <c r="C4" s="5">
@@ -14061,7 +13997,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="64">
+      <c r="B5" s="62">
         <v>4</v>
       </c>
       <c r="C5" s="5">
@@ -14087,7 +14023,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="64">
+      <c r="B6" s="62">
         <v>5</v>
       </c>
       <c r="C6" s="5">
@@ -14113,7 +14049,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="64">
+      <c r="B7" s="62">
         <v>6</v>
       </c>
       <c r="C7" s="5">
@@ -14125,7 +14061,7 @@
       <c r="E7" s="19">
         <v>44662</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="59">
         <v>44664</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -14139,7 +14075,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="64">
+      <c r="B8" s="62">
         <v>7</v>
       </c>
       <c r="C8" s="5">
@@ -14165,7 +14101,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="64">
+      <c r="B9" s="62">
         <v>8</v>
       </c>
       <c r="C9" s="5">
@@ -14191,7 +14127,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="63">
+      <c r="B10" s="61">
         <v>9</v>
       </c>
       <c r="C10" s="5">
@@ -14217,7 +14153,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="64">
+      <c r="B11" s="62">
         <v>10</v>
       </c>
       <c r="C11" s="5">
@@ -14243,7 +14179,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="64">
+      <c r="B12" s="62">
         <v>11</v>
       </c>
       <c r="C12" s="5">
@@ -14269,7 +14205,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="64">
+      <c r="B13" s="62">
         <v>12</v>
       </c>
       <c r="C13" s="5">
@@ -14295,7 +14231,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="64">
+      <c r="B14" s="62">
         <v>13</v>
       </c>
       <c r="C14" s="5">
@@ -14321,7 +14257,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="64">
+      <c r="B15" s="62">
         <v>14</v>
       </c>
       <c r="C15" s="5">
@@ -14347,7 +14283,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="64">
+      <c r="B16" s="62">
         <v>15</v>
       </c>
       <c r="C16" s="5">
@@ -14373,7 +14309,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="63">
+      <c r="B17" s="61">
         <v>16</v>
       </c>
       <c r="C17" s="5">
@@ -14399,7 +14335,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="64">
+      <c r="B18" s="62">
         <v>17</v>
       </c>
       <c r="C18" s="5">
@@ -14425,7 +14361,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="64">
+      <c r="B19" s="62">
         <v>18</v>
       </c>
       <c r="C19" s="5">
@@ -14451,7 +14387,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="64">
+      <c r="B20" s="62">
         <v>19</v>
       </c>
       <c r="C20" s="5">
@@ -14477,7 +14413,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="64">
+      <c r="B21" s="62">
         <v>20</v>
       </c>
       <c r="C21" s="5">
@@ -14503,7 +14439,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="64">
+      <c r="B22" s="62">
         <v>21</v>
       </c>
       <c r="C22" s="5">
@@ -14529,7 +14465,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="64">
+      <c r="B23" s="62">
         <v>22</v>
       </c>
       <c r="C23" s="5">
@@ -14555,7 +14491,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="63">
+      <c r="B24" s="61">
         <v>23</v>
       </c>
       <c r="C24" s="5">
@@ -14581,7 +14517,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="64">
+      <c r="B25" s="62">
         <v>24</v>
       </c>
       <c r="C25" s="5">
@@ -14607,7 +14543,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="64">
+      <c r="B26" s="62">
         <v>25</v>
       </c>
       <c r="C26" s="5">
@@ -14633,7 +14569,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="64">
+      <c r="B27" s="62">
         <v>26</v>
       </c>
       <c r="C27" s="5">
@@ -14659,7 +14595,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="64">
+      <c r="B28" s="62">
         <v>27</v>
       </c>
       <c r="C28" s="5">
@@ -14685,7 +14621,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="64">
+      <c r="B29" s="62">
         <v>28</v>
       </c>
       <c r="C29" s="5">
@@ -14711,7 +14647,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="64">
+      <c r="B30" s="62">
         <v>29</v>
       </c>
       <c r="C30" s="5">
@@ -14737,7 +14673,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="63">
+      <c r="B31" s="61">
         <v>30</v>
       </c>
       <c r="C31" s="5">
@@ -14763,7 +14699,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="64">
+      <c r="B32" s="62">
         <v>31</v>
       </c>
       <c r="C32" s="5">
@@ -14789,7 +14725,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="64">
+      <c r="B33" s="62">
         <v>32</v>
       </c>
       <c r="C33" s="5">
@@ -14815,7 +14751,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="64">
+      <c r="B34" s="62">
         <v>33</v>
       </c>
       <c r="C34" s="5">
@@ -14841,7 +14777,7 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="64">
+      <c r="B35" s="62">
         <v>34</v>
       </c>
       <c r="C35" s="5">
@@ -14867,7 +14803,7 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="64">
+      <c r="B36" s="62">
         <v>35</v>
       </c>
       <c r="C36" s="5">
@@ -14893,7 +14829,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="64">
+      <c r="B37" s="62">
         <v>36</v>
       </c>
       <c r="C37" s="5">
@@ -14919,7 +14855,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="63">
+      <c r="B38" s="61">
         <v>37</v>
       </c>
       <c r="C38" s="5">
@@ -14945,7 +14881,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="64">
+      <c r="B39" s="62">
         <v>38</v>
       </c>
       <c r="C39" s="5">
@@ -14971,7 +14907,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="64">
+      <c r="B40" s="62">
         <v>39</v>
       </c>
       <c r="C40" s="5">
@@ -14997,7 +14933,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="64">
+      <c r="B41" s="62">
         <v>40</v>
       </c>
       <c r="C41" s="5">
@@ -15023,7 +14959,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="64">
+      <c r="B42" s="62">
         <v>41</v>
       </c>
       <c r="C42" s="5">
@@ -15049,7 +14985,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="64">
+      <c r="B43" s="62">
         <v>42</v>
       </c>
       <c r="C43" s="5">
@@ -15075,7 +15011,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="64">
+      <c r="B44" s="62">
         <v>43</v>
       </c>
       <c r="C44" s="5">
@@ -15101,7 +15037,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="63">
+      <c r="B45" s="61">
         <v>44</v>
       </c>
       <c r="C45" s="5">
@@ -15127,7 +15063,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="64">
+      <c r="B46" s="62">
         <v>45</v>
       </c>
       <c r="C46" s="5">
@@ -15153,7 +15089,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="64">
+      <c r="B47" s="62">
         <v>46</v>
       </c>
       <c r="C47" s="5">
@@ -15179,7 +15115,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="64">
+      <c r="B48" s="62">
         <v>47</v>
       </c>
       <c r="C48" s="5">
@@ -15205,7 +15141,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="64">
+      <c r="B49" s="62">
         <v>48</v>
       </c>
       <c r="C49" s="5">
@@ -15231,7 +15167,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="64">
+      <c r="B50" s="62">
         <v>49</v>
       </c>
       <c r="C50" s="5">
@@ -15257,7 +15193,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="64">
+      <c r="B51" s="62">
         <v>50</v>
       </c>
       <c r="C51" s="5">
@@ -15283,7 +15219,7 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="63">
+      <c r="B52" s="61">
         <v>51</v>
       </c>
       <c r="C52" s="5">
@@ -15309,7 +15245,7 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="64">
+      <c r="B53" s="62">
         <v>52</v>
       </c>
       <c r="C53" s="5">
@@ -15335,7 +15271,7 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="64">
+      <c r="B54" s="62">
         <v>53</v>
       </c>
       <c r="C54" s="5">
@@ -15361,7 +15297,7 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="64">
+      <c r="B55" s="62">
         <v>54</v>
       </c>
       <c r="C55" s="5">
@@ -15387,7 +15323,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="64">
+      <c r="B56" s="62">
         <v>55</v>
       </c>
       <c r="C56" s="5">
@@ -15413,7 +15349,7 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="64">
+      <c r="B57" s="62">
         <v>56</v>
       </c>
       <c r="C57" s="5">
@@ -15439,7 +15375,7 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="64">
+      <c r="B58" s="62">
         <v>57</v>
       </c>
       <c r="C58" s="5">
@@ -15465,7 +15401,7 @@
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="63">
+      <c r="B59" s="61">
         <v>58</v>
       </c>
       <c r="C59" s="5">
@@ -15491,7 +15427,7 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="64">
+      <c r="B60" s="62">
         <v>59</v>
       </c>
       <c r="C60" s="5">
@@ -15517,7 +15453,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="64">
+      <c r="B61" s="62">
         <v>60</v>
       </c>
       <c r="C61" s="5">
@@ -15543,7 +15479,7 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="64">
+      <c r="B62" s="62">
         <v>61</v>
       </c>
       <c r="C62" s="5">
@@ -15569,7 +15505,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="64">
+      <c r="B63" s="62">
         <v>62</v>
       </c>
       <c r="C63" s="5">
@@ -15595,7 +15531,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="64">
+      <c r="B64" s="62">
         <v>63</v>
       </c>
       <c r="C64" s="5">
@@ -15621,7 +15557,7 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="64">
+      <c r="B65" s="62">
         <v>64</v>
       </c>
       <c r="C65" s="5">
@@ -15647,7 +15583,7 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="63">
+      <c r="B66" s="61">
         <v>65</v>
       </c>
       <c r="C66" s="5">
@@ -15673,7 +15609,7 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="64">
+      <c r="B67" s="62">
         <v>66</v>
       </c>
       <c r="C67" s="5">
@@ -15699,7 +15635,7 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="64">
+      <c r="B68" s="62">
         <v>67</v>
       </c>
       <c r="C68" s="5">
@@ -15725,7 +15661,7 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="64">
+      <c r="B69" s="62">
         <v>68</v>
       </c>
       <c r="C69" s="5">
@@ -15751,7 +15687,7 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="64">
+      <c r="B70" s="62">
         <v>69</v>
       </c>
       <c r="C70" s="5">
@@ -15777,7 +15713,7 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="64">
+      <c r="B71" s="62">
         <v>70</v>
       </c>
       <c r="C71" s="5">
@@ -15803,7 +15739,7 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="64">
+      <c r="B72" s="62">
         <v>71</v>
       </c>
       <c r="C72" s="5">
@@ -15829,7 +15765,7 @@
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="63">
+      <c r="B73" s="61">
         <v>72</v>
       </c>
       <c r="C73" s="5">
@@ -15855,7 +15791,7 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="64">
+      <c r="B74" s="62">
         <v>73</v>
       </c>
       <c r="C74" s="5">
@@ -15881,7 +15817,7 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="64">
+      <c r="B75" s="62">
         <v>74</v>
       </c>
       <c r="C75" s="5">
@@ -15907,7 +15843,7 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="64">
+      <c r="B76" s="62">
         <v>75</v>
       </c>
       <c r="C76" s="5">
@@ -15933,7 +15869,7 @@
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="64">
+      <c r="B77" s="62">
         <v>76</v>
       </c>
       <c r="C77" s="5">
@@ -15959,7 +15895,7 @@
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="64">
+      <c r="B78" s="62">
         <v>77</v>
       </c>
       <c r="C78" s="5">
@@ -15985,7 +15921,7 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="64">
+      <c r="B79" s="62">
         <v>78</v>
       </c>
       <c r="C79" s="5">
@@ -16011,7 +15947,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="63">
+      <c r="B80" s="61">
         <v>79</v>
       </c>
       <c r="C80" s="5">
@@ -16037,7 +15973,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="64">
+      <c r="B81" s="62">
         <v>80</v>
       </c>
       <c r="C81" s="5">
@@ -16063,7 +15999,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="64">
+      <c r="B82" s="62">
         <v>81</v>
       </c>
       <c r="C82" s="5">
@@ -16089,7 +16025,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="64">
+      <c r="B83" s="62">
         <v>82</v>
       </c>
       <c r="C83" s="5">
@@ -16115,7 +16051,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="64">
+      <c r="B84" s="62">
         <v>83</v>
       </c>
       <c r="C84" s="5">
@@ -16141,7 +16077,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="64">
+      <c r="B85" s="62">
         <v>84</v>
       </c>
       <c r="C85" s="5">
@@ -16167,7 +16103,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="64">
+      <c r="B86" s="62">
         <v>85</v>
       </c>
       <c r="C86" s="5">
@@ -16193,7 +16129,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="63">
+      <c r="B87" s="61">
         <v>86</v>
       </c>
       <c r="C87" s="5">
@@ -16219,7 +16155,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="64">
+      <c r="B88" s="62">
         <v>87</v>
       </c>
       <c r="C88" s="5">
@@ -16245,7 +16181,7 @@
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="64">
+      <c r="B89" s="62">
         <v>88</v>
       </c>
       <c r="C89" s="5">
@@ -16271,7 +16207,7 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="64">
+      <c r="B90" s="62">
         <v>89</v>
       </c>
       <c r="C90" s="5">
@@ -16297,7 +16233,7 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="64">
+      <c r="B91" s="62">
         <v>90</v>
       </c>
       <c r="C91" s="5">
@@ -16323,7 +16259,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="64">
+      <c r="B92" s="62">
         <v>91</v>
       </c>
       <c r="C92" s="5">
@@ -16349,7 +16285,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="64">
+      <c r="B93" s="62">
         <v>92</v>
       </c>
       <c r="C93" s="5">
@@ -16375,7 +16311,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="63">
+      <c r="B94" s="61">
         <v>93</v>
       </c>
       <c r="C94" s="5">
@@ -16401,7 +16337,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="64">
+      <c r="B95" s="62">
         <v>94</v>
       </c>
       <c r="C95" s="5">
@@ -16427,7 +16363,7 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="64">
+      <c r="B96" s="62">
         <v>95</v>
       </c>
       <c r="C96" s="5">
@@ -16453,7 +16389,7 @@
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="64">
+      <c r="B97" s="62">
         <v>96</v>
       </c>
       <c r="C97" s="5">
@@ -16479,7 +16415,7 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="64">
+      <c r="B98" s="62">
         <v>97</v>
       </c>
       <c r="C98" s="5">
@@ -16505,7 +16441,7 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="64">
+      <c r="B99" s="62">
         <v>98</v>
       </c>
       <c r="C99" s="5">
@@ -16531,7 +16467,7 @@
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="64">
+      <c r="B100" s="62">
         <v>99</v>
       </c>
       <c r="C100" s="5">
@@ -16557,7 +16493,7 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="63">
+      <c r="B101" s="61">
         <v>100</v>
       </c>
       <c r="C101" s="5">
@@ -16583,7 +16519,7 @@
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="64">
+      <c r="B102" s="62">
         <v>101</v>
       </c>
       <c r="C102" s="5">
@@ -16609,7 +16545,7 @@
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="64">
+      <c r="B103" s="62">
         <v>102</v>
       </c>
       <c r="C103" s="5">
@@ -16635,7 +16571,7 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="64">
+      <c r="B104" s="62">
         <v>103</v>
       </c>
       <c r="C104" s="5">
@@ -16661,7 +16597,7 @@
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="64">
+      <c r="B105" s="62">
         <v>104</v>
       </c>
       <c r="C105" s="5">
@@ -16687,7 +16623,7 @@
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="64">
+      <c r="B106" s="62">
         <v>105</v>
       </c>
       <c r="C106" s="5">
@@ -16713,7 +16649,7 @@
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="64">
+      <c r="B107" s="62">
         <v>106</v>
       </c>
       <c r="C107" s="5">
@@ -16739,7 +16675,7 @@
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="63">
+      <c r="B108" s="61">
         <v>107</v>
       </c>
       <c r="C108" s="5">
@@ -16765,7 +16701,7 @@
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="64">
+      <c r="B109" s="62">
         <v>108</v>
       </c>
       <c r="C109" s="5">
@@ -16791,7 +16727,7 @@
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="64">
+      <c r="B110" s="62">
         <v>109</v>
       </c>
       <c r="C110" s="5">
@@ -16817,7 +16753,7 @@
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="64">
+      <c r="B111" s="62">
         <v>110</v>
       </c>
       <c r="C111" s="5">
@@ -16843,7 +16779,7 @@
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="64">
+      <c r="B112" s="62">
         <v>111</v>
       </c>
       <c r="C112" s="5">
@@ -16869,7 +16805,7 @@
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="64">
+      <c r="B113" s="62">
         <v>112</v>
       </c>
       <c r="C113" s="5">
@@ -16895,7 +16831,7 @@
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="64">
+      <c r="B114" s="62">
         <v>113</v>
       </c>
       <c r="C114" s="5">
@@ -16921,7 +16857,7 @@
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="63">
+      <c r="B115" s="61">
         <v>114</v>
       </c>
       <c r="C115" s="5">
@@ -16947,7 +16883,7 @@
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="64">
+      <c r="B116" s="62">
         <v>115</v>
       </c>
       <c r="C116" s="5">
@@ -16973,7 +16909,7 @@
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="64">
+      <c r="B117" s="62">
         <v>116</v>
       </c>
       <c r="C117" s="5">
@@ -16999,7 +16935,7 @@
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="64">
+      <c r="B118" s="62">
         <v>117</v>
       </c>
       <c r="C118" s="5">
@@ -17025,7 +16961,7 @@
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="64">
+      <c r="B119" s="62">
         <v>118</v>
       </c>
       <c r="C119" s="5">
@@ -17051,7 +16987,7 @@
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="64">
+      <c r="B120" s="62">
         <v>119</v>
       </c>
       <c r="C120" s="5">
@@ -17077,7 +17013,7 @@
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="64">
+      <c r="B121" s="62">
         <v>120</v>
       </c>
       <c r="C121" s="5">
@@ -17103,7 +17039,7 @@
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="63">
+      <c r="B122" s="61">
         <v>121</v>
       </c>
       <c r="C122" s="5">
@@ -17129,7 +17065,7 @@
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="64">
+      <c r="B123" s="62">
         <v>122</v>
       </c>
       <c r="C123" s="5">
@@ -17155,7 +17091,7 @@
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="64">
+      <c r="B124" s="62">
         <v>123</v>
       </c>
       <c r="C124" s="5">
@@ -17181,7 +17117,7 @@
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="64">
+      <c r="B125" s="62">
         <v>124</v>
       </c>
       <c r="C125" s="5">
@@ -17207,7 +17143,7 @@
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="64">
+      <c r="B126" s="62">
         <v>125</v>
       </c>
       <c r="C126" s="5">
@@ -17233,7 +17169,7 @@
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="64">
+      <c r="B127" s="62">
         <v>126</v>
       </c>
       <c r="C127" s="5">
@@ -17259,7 +17195,7 @@
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="64">
+      <c r="B128" s="62">
         <v>127</v>
       </c>
       <c r="C128" s="5">
@@ -17285,7 +17221,7 @@
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="63">
+      <c r="B129" s="61">
         <v>128</v>
       </c>
       <c r="C129" s="5">
@@ -17311,7 +17247,7 @@
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="64">
+      <c r="B130" s="62">
         <v>129</v>
       </c>
       <c r="C130" s="5">
@@ -17337,7 +17273,7 @@
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="64">
+      <c r="B131" s="62">
         <v>130</v>
       </c>
       <c r="C131" s="5">
@@ -17363,7 +17299,7 @@
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="64">
+      <c r="B132" s="62">
         <v>131</v>
       </c>
       <c r="C132" s="5">
@@ -17389,7 +17325,7 @@
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="64">
+      <c r="B133" s="62">
         <v>132</v>
       </c>
       <c r="C133" s="5">
@@ -17415,7 +17351,7 @@
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="64">
+      <c r="B134" s="62">
         <v>133</v>
       </c>
       <c r="C134" s="5">
@@ -17441,7 +17377,7 @@
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="64">
+      <c r="B135" s="62">
         <v>134</v>
       </c>
       <c r="C135" s="5">
@@ -17467,7 +17403,7 @@
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="63">
+      <c r="B136" s="61">
         <v>135</v>
       </c>
       <c r="C136" s="5">
@@ -17493,7 +17429,7 @@
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="64">
+      <c r="B137" s="62">
         <v>136</v>
       </c>
       <c r="C137" s="5">
@@ -17519,7 +17455,7 @@
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="64">
+      <c r="B138" s="62">
         <v>137</v>
       </c>
       <c r="C138" s="5">
@@ -17545,7 +17481,7 @@
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="64">
+      <c r="B139" s="62">
         <v>138</v>
       </c>
       <c r="C139" s="5">
@@ -17571,7 +17507,7 @@
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="64">
+      <c r="B140" s="62">
         <v>139</v>
       </c>
       <c r="C140" s="5">
@@ -17597,7 +17533,7 @@
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="64">
+      <c r="B141" s="62">
         <v>140</v>
       </c>
       <c r="C141" s="5">
@@ -17623,7 +17559,7 @@
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="64">
+      <c r="B142" s="62">
         <v>141</v>
       </c>
       <c r="C142" s="5">
@@ -17649,7 +17585,7 @@
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="63">
+      <c r="B143" s="61">
         <v>142</v>
       </c>
       <c r="C143" s="5">
@@ -17675,7 +17611,7 @@
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="64">
+      <c r="B144" s="62">
         <v>143</v>
       </c>
       <c r="C144" s="5">
@@ -17701,7 +17637,7 @@
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="64">
+      <c r="B145" s="62">
         <v>144</v>
       </c>
       <c r="C145" s="5">
@@ -17727,7 +17663,7 @@
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="64">
+      <c r="B146" s="62">
         <v>145</v>
       </c>
       <c r="C146" s="5">
@@ -17753,7 +17689,7 @@
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="64">
+      <c r="B147" s="62">
         <v>146</v>
       </c>
       <c r="C147" s="5">
@@ -17779,7 +17715,7 @@
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="64">
+      <c r="B148" s="62">
         <v>147</v>
       </c>
       <c r="C148" s="5">
@@ -17805,7 +17741,7 @@
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="64">
+      <c r="B149" s="62">
         <v>148</v>
       </c>
       <c r="C149" s="5">
@@ -17831,7 +17767,7 @@
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="63">
+      <c r="B150" s="61">
         <v>149</v>
       </c>
       <c r="C150" s="5">
@@ -17857,7 +17793,7 @@
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="64">
+      <c r="B151" s="62">
         <v>150</v>
       </c>
       <c r="C151" s="5">
@@ -17883,7 +17819,7 @@
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="64">
+      <c r="B152" s="62">
         <v>151</v>
       </c>
       <c r="C152" s="5">
@@ -17909,7 +17845,7 @@
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="64">
+      <c r="B153" s="62">
         <v>152</v>
       </c>
       <c r="C153" s="5">
@@ -17935,7 +17871,7 @@
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="64">
+      <c r="B154" s="62">
         <v>153</v>
       </c>
       <c r="C154" s="5">
@@ -17961,7 +17897,7 @@
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="64">
+      <c r="B155" s="62">
         <v>154</v>
       </c>
       <c r="C155" s="5">
@@ -17987,7 +17923,7 @@
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="64">
+      <c r="B156" s="62">
         <v>155</v>
       </c>
       <c r="C156" s="5">
@@ -18013,7 +17949,7 @@
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="63">
+      <c r="B157" s="61">
         <v>156</v>
       </c>
       <c r="C157" s="5">
@@ -18039,7 +17975,7 @@
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="64">
+      <c r="B158" s="62">
         <v>157</v>
       </c>
       <c r="C158" s="5">
@@ -18065,7 +18001,7 @@
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="64">
+      <c r="B159" s="62">
         <v>158</v>
       </c>
       <c r="C159" s="5">
@@ -18091,7 +18027,7 @@
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="64">
+      <c r="B160" s="62">
         <v>159</v>
       </c>
       <c r="C160" s="5">
@@ -18117,7 +18053,7 @@
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="64">
+      <c r="B161" s="62">
         <v>160</v>
       </c>
       <c r="C161" s="5">
@@ -18143,7 +18079,7 @@
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="64">
+      <c r="B162" s="62">
         <v>161</v>
       </c>
       <c r="C162" s="5">
@@ -18169,7 +18105,7 @@
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="64">
+      <c r="B163" s="62">
         <v>162</v>
       </c>
       <c r="C163" s="5">
@@ -18195,7 +18131,7 @@
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="63">
+      <c r="B164" s="61">
         <v>163</v>
       </c>
       <c r="C164" s="5">
@@ -18221,7 +18157,7 @@
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="64">
+      <c r="B165" s="62">
         <v>164</v>
       </c>
       <c r="C165" s="5">
@@ -18247,7 +18183,7 @@
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B166" s="64">
+      <c r="B166" s="62">
         <v>165</v>
       </c>
       <c r="C166" s="5">
@@ -18273,7 +18209,7 @@
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="64">
+      <c r="B167" s="62">
         <v>166</v>
       </c>
       <c r="C167" s="5">
@@ -18299,7 +18235,7 @@
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="64">
+      <c r="B168" s="62">
         <v>167</v>
       </c>
       <c r="C168" s="5">
@@ -18325,7 +18261,7 @@
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="64">
+      <c r="B169" s="62">
         <v>168</v>
       </c>
       <c r="C169" s="5">
@@ -18351,7 +18287,7 @@
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="64">
+      <c r="B170" s="62">
         <v>169</v>
       </c>
       <c r="C170" s="5">
@@ -18377,7 +18313,7 @@
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="63">
+      <c r="B171" s="61">
         <v>170</v>
       </c>
       <c r="C171" s="5">
@@ -18403,7 +18339,7 @@
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="64">
+      <c r="B172" s="62">
         <v>171</v>
       </c>
       <c r="C172" s="5">
@@ -18429,7 +18365,7 @@
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="64">
+      <c r="B173" s="62">
         <v>172</v>
       </c>
       <c r="C173" s="5">
@@ -18455,7 +18391,7 @@
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="64">
+      <c r="B174" s="62">
         <v>173</v>
       </c>
       <c r="C174" s="5">
@@ -18481,7 +18417,7 @@
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="64">
+      <c r="B175" s="62">
         <v>174</v>
       </c>
       <c r="C175" s="5">
@@ -18507,7 +18443,7 @@
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="64">
+      <c r="B176" s="62">
         <v>175</v>
       </c>
       <c r="C176" s="5">
@@ -18533,7 +18469,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="64">
+      <c r="B177" s="62">
         <v>176</v>
       </c>
       <c r="C177" s="5">
@@ -18559,7 +18495,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="63">
+      <c r="B178" s="61">
         <v>177</v>
       </c>
       <c r="C178" s="5">
@@ -18585,7 +18521,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="64">
+      <c r="B179" s="62">
         <v>178</v>
       </c>
       <c r="C179" s="5">
@@ -18611,7 +18547,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="64">
+      <c r="B180" s="62">
         <v>179</v>
       </c>
       <c r="C180" s="5">
@@ -18637,7 +18573,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="64">
+      <c r="B181" s="62">
         <v>180</v>
       </c>
       <c r="C181" s="5">
@@ -18663,7 +18599,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="64">
+      <c r="B182" s="62">
         <v>181</v>
       </c>
       <c r="C182" s="5">
@@ -18689,7 +18625,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="64">
+      <c r="B183" s="62">
         <v>182</v>
       </c>
       <c r="C183" s="5">
@@ -18715,7 +18651,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="64">
+      <c r="B184" s="62">
         <v>183</v>
       </c>
       <c r="C184" s="5">
@@ -18741,7 +18677,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="63">
+      <c r="B185" s="61">
         <v>184</v>
       </c>
       <c r="C185" s="5">
@@ -18767,7 +18703,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B186" s="64">
+      <c r="B186" s="62">
         <v>185</v>
       </c>
       <c r="C186" s="5">
@@ -18793,7 +18729,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="64">
+      <c r="B187" s="62">
         <v>186</v>
       </c>
       <c r="C187" s="5">
@@ -18819,7 +18755,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B188" s="64">
+      <c r="B188" s="62">
         <v>187</v>
       </c>
       <c r="C188" s="5">
@@ -18845,7 +18781,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="64">
+      <c r="B189" s="62">
         <v>188</v>
       </c>
       <c r="C189" s="5">
@@ -18871,7 +18807,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="64">
+      <c r="B190" s="62">
         <v>189</v>
       </c>
       <c r="C190" s="5">
@@ -18897,7 +18833,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="64">
+      <c r="B191" s="62">
         <v>190</v>
       </c>
       <c r="C191" s="5">
@@ -18926,7 +18862,7 @@
       <c r="A192" s="5">
         <v>1</v>
       </c>
-      <c r="B192" s="63">
+      <c r="B192" s="61">
         <v>191</v>
       </c>
       <c r="C192" s="5">
@@ -18951,7 +18887,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
-      <c r="B193" s="64">
+      <c r="B193" s="62">
         <v>192</v>
       </c>
       <c r="C193" s="5">
@@ -18978,7 +18914,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
-      <c r="B194" s="64">
+      <c r="B194" s="62">
         <v>193</v>
       </c>
       <c r="C194" s="5">
@@ -19005,7 +18941,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
-      <c r="B195" s="64">
+      <c r="B195" s="62">
         <v>194</v>
       </c>
       <c r="C195" s="5">
@@ -19032,7 +18968,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
-      <c r="B196" s="64">
+      <c r="B196" s="62">
         <v>195</v>
       </c>
       <c r="C196" s="5">
@@ -19061,7 +18997,7 @@
       <c r="A197" s="5">
         <v>2</v>
       </c>
-      <c r="B197" s="64">
+      <c r="B197" s="62">
         <v>196</v>
       </c>
       <c r="C197" s="5">
@@ -19086,7 +19022,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
-      <c r="B198" s="64">
+      <c r="B198" s="62">
         <v>197</v>
       </c>
       <c r="C198" s="5">
@@ -19113,7 +19049,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
-      <c r="B199" s="63">
+      <c r="B199" s="61">
         <v>198</v>
       </c>
       <c r="C199" s="5">
@@ -19140,7 +19076,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
-      <c r="B200" s="64">
+      <c r="B200" s="62">
         <v>199</v>
       </c>
       <c r="C200" s="5">
@@ -19167,7 +19103,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
-      <c r="B201" s="64">
+      <c r="B201" s="62">
         <v>200</v>
       </c>
       <c r="C201" s="5">
@@ -19194,7 +19130,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
-      <c r="B202" s="64">
+      <c r="B202" s="62">
         <v>201</v>
       </c>
       <c r="C202" s="5">
@@ -19221,7 +19157,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
-      <c r="B203" s="64">
+      <c r="B203" s="62">
         <v>202</v>
       </c>
       <c r="C203" s="5">
@@ -19248,7 +19184,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
-      <c r="B204" s="64">
+      <c r="B204" s="62">
         <v>203</v>
       </c>
       <c r="C204" s="5">
@@ -19277,7 +19213,7 @@
       <c r="A205" s="5">
         <v>3</v>
       </c>
-      <c r="B205" s="64">
+      <c r="B205" s="62">
         <v>204</v>
       </c>
       <c r="C205" s="5">
@@ -19302,7 +19238,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
-      <c r="B206" s="63">
+      <c r="B206" s="61">
         <v>205</v>
       </c>
       <c r="C206" s="5">
@@ -19329,7 +19265,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
-      <c r="B207" s="64">
+      <c r="B207" s="62">
         <v>206</v>
       </c>
       <c r="C207" s="5">
@@ -19356,7 +19292,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
-      <c r="B208" s="64">
+      <c r="B208" s="62">
         <v>207</v>
       </c>
       <c r="C208" s="5">
@@ -19383,7 +19319,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
-      <c r="B209" s="64">
+      <c r="B209" s="62">
         <v>208</v>
       </c>
       <c r="C209" s="5">
@@ -19410,7 +19346,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
-      <c r="B210" s="64">
+      <c r="B210" s="62">
         <v>209</v>
       </c>
       <c r="C210" s="5">
@@ -19437,7 +19373,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
-      <c r="B211" s="64">
+      <c r="B211" s="62">
         <v>210</v>
       </c>
       <c r="C211" s="5">
@@ -19464,7 +19400,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
-      <c r="B212" s="64">
+      <c r="B212" s="62">
         <v>211</v>
       </c>
       <c r="C212" s="5">
@@ -19491,7 +19427,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
-      <c r="B213" s="63">
+      <c r="B213" s="61">
         <v>212</v>
       </c>
       <c r="C213" s="5">
@@ -19518,7 +19454,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
-      <c r="B214" s="64">
+      <c r="B214" s="62">
         <v>213</v>
       </c>
       <c r="C214" s="5">
@@ -19547,7 +19483,7 @@
       <c r="A215" s="5">
         <v>4</v>
       </c>
-      <c r="B215" s="64">
+      <c r="B215" s="62">
         <v>214</v>
       </c>
       <c r="C215" s="5">
@@ -19572,7 +19508,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
-      <c r="B216" s="64">
+      <c r="B216" s="62">
         <v>215</v>
       </c>
       <c r="C216" s="5">
@@ -19599,7 +19535,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
-      <c r="B217" s="64">
+      <c r="B217" s="62">
         <v>216</v>
       </c>
       <c r="C217" s="5">
@@ -19626,7 +19562,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
-      <c r="B218" s="64">
+      <c r="B218" s="62">
         <v>217</v>
       </c>
       <c r="C218" s="5">
@@ -19653,7 +19589,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
-      <c r="B219" s="64">
+      <c r="B219" s="62">
         <v>218</v>
       </c>
       <c r="C219" s="5">
@@ -19682,7 +19618,7 @@
       <c r="A220" s="5">
         <v>5</v>
       </c>
-      <c r="B220" s="63">
+      <c r="B220" s="61">
         <v>219</v>
       </c>
       <c r="C220" s="5">
@@ -19707,7 +19643,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
-      <c r="B221" s="64">
+      <c r="B221" s="62">
         <v>220</v>
       </c>
       <c r="C221" s="5">
@@ -19734,7 +19670,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
-      <c r="B222" s="64">
+      <c r="B222" s="62">
         <v>221</v>
       </c>
       <c r="C222" s="5">
@@ -19761,7 +19697,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
-      <c r="B223" s="64">
+      <c r="B223" s="62">
         <v>222</v>
       </c>
       <c r="C223" s="5">
@@ -19788,7 +19724,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
-      <c r="B224" s="64">
+      <c r="B224" s="62">
         <v>223</v>
       </c>
       <c r="C224" s="5">
@@ -19815,7 +19751,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
-      <c r="B225" s="64">
+      <c r="B225" s="62">
         <v>224</v>
       </c>
       <c r="C225" s="5">
@@ -19842,7 +19778,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
-      <c r="B226" s="64">
+      <c r="B226" s="62">
         <v>225</v>
       </c>
       <c r="C226" s="5">
@@ -19869,7 +19805,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
-      <c r="B227" s="63">
+      <c r="B227" s="61">
         <v>226</v>
       </c>
       <c r="C227" s="5">
@@ -19896,7 +19832,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
-      <c r="B228" s="64">
+      <c r="B228" s="62">
         <v>227</v>
       </c>
       <c r="C228" s="5">
@@ -19923,7 +19859,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
-      <c r="B229" s="64">
+      <c r="B229" s="62">
         <v>228</v>
       </c>
       <c r="C229" s="5">
@@ -19950,7 +19886,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
-      <c r="B230" s="64">
+      <c r="B230" s="62">
         <v>229</v>
       </c>
       <c r="C230" s="5">
@@ -19977,7 +19913,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
-      <c r="B231" s="64">
+      <c r="B231" s="62">
         <v>230</v>
       </c>
       <c r="C231" s="5">
@@ -20006,7 +19942,7 @@
       <c r="A232" s="5">
         <v>6</v>
       </c>
-      <c r="B232" s="64">
+      <c r="B232" s="62">
         <v>231</v>
       </c>
       <c r="C232" s="5">
@@ -20031,7 +19967,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
-      <c r="B233" s="64">
+      <c r="B233" s="62">
         <v>232</v>
       </c>
       <c r="C233" s="5">
@@ -20058,7 +19994,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
-      <c r="B234" s="63">
+      <c r="B234" s="61">
         <v>233</v>
       </c>
       <c r="C234" s="5">
@@ -20087,7 +20023,7 @@
       <c r="A235" s="5">
         <v>7</v>
       </c>
-      <c r="B235" s="64">
+      <c r="B235" s="62">
         <v>234</v>
       </c>
       <c r="C235" s="5">
@@ -20112,7 +20048,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
-      <c r="B236" s="64">
+      <c r="B236" s="62">
         <v>235</v>
       </c>
       <c r="C236" s="5">
@@ -20139,7 +20075,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
-      <c r="B237" s="64">
+      <c r="B237" s="62">
         <v>236</v>
       </c>
       <c r="C237" s="5">
@@ -20168,7 +20104,7 @@
       <c r="A238" s="5">
         <v>8</v>
       </c>
-      <c r="B238" s="64">
+      <c r="B238" s="62">
         <v>237</v>
       </c>
       <c r="C238" s="5">
@@ -20195,7 +20131,7 @@
       <c r="A239" s="5">
         <v>1</v>
       </c>
-      <c r="B239" s="64">
+      <c r="B239" s="62">
         <v>238</v>
       </c>
       <c r="C239" s="5">
@@ -20224,7 +20160,7 @@
       <c r="A240" s="5">
         <v>2</v>
       </c>
-      <c r="B240" s="64">
+      <c r="B240" s="62">
         <v>239</v>
       </c>
       <c r="C240" s="5">
@@ -20251,7 +20187,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
-      <c r="B241" s="63">
+      <c r="B241" s="61">
         <v>240</v>
       </c>
       <c r="C241" s="5">
@@ -20280,7 +20216,7 @@
       <c r="A242" s="5">
         <v>9</v>
       </c>
-      <c r="B242" s="64">
+      <c r="B242" s="62">
         <v>241</v>
       </c>
       <c r="C242" s="5">
@@ -20307,7 +20243,7 @@
       <c r="A243" s="5">
         <v>10</v>
       </c>
-      <c r="B243" s="64">
+      <c r="B243" s="62">
         <v>242</v>
       </c>
       <c r="C243" s="5">
@@ -20336,7 +20272,7 @@
       <c r="A244" s="5">
         <v>3</v>
       </c>
-      <c r="B244" s="64">
+      <c r="B244" s="62">
         <v>243</v>
       </c>
       <c r="C244" s="5">
@@ -20365,7 +20301,7 @@
       <c r="A245" s="5">
         <v>4</v>
       </c>
-      <c r="B245" s="64">
+      <c r="B245" s="62">
         <v>244</v>
       </c>
       <c r="C245" s="5">
@@ -20392,7 +20328,7 @@
       <c r="A246" s="5">
         <v>11</v>
       </c>
-      <c r="B246" s="64">
+      <c r="B246" s="62">
         <v>245</v>
       </c>
       <c r="C246" s="5">
@@ -20419,7 +20355,7 @@
       <c r="A247" s="5">
         <v>12</v>
       </c>
-      <c r="B247" s="64">
+      <c r="B247" s="62">
         <v>246</v>
       </c>
       <c r="C247" s="5">
@@ -20446,16 +20382,16 @@
       <c r="A248" s="5">
         <v>13</v>
       </c>
-      <c r="B248" s="63">
+      <c r="B248" s="61">
         <v>247</v>
       </c>
-      <c r="C248" s="53">
+      <c r="C248" s="52">
         <v>776</v>
       </c>
       <c r="D248" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E248" s="50">
+      <c r="E248" s="49">
         <v>45043</v>
       </c>
       <c r="F248" s="19">
@@ -20475,7 +20411,7 @@
       <c r="A249" s="5">
         <v>1</v>
       </c>
-      <c r="B249" s="64">
+      <c r="B249" s="62">
         <v>248</v>
       </c>
       <c r="C249" s="5">
@@ -20504,7 +20440,7 @@
       <c r="A250" s="5">
         <v>5</v>
       </c>
-      <c r="B250" s="64">
+      <c r="B250" s="62">
         <v>249</v>
       </c>
       <c r="C250" s="5">
@@ -20552,11 +20488,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="91"/>
-      <c r="G6" s="98" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="96" t="s">
         <v>123</v>
       </c>
     </row>
@@ -21111,14 +21047,14 @@
       </c>
     </row>
     <row r="60" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F60" s="97"/>
-      <c r="G60" s="96" t="s">
+      <c r="F60" s="95"/>
+      <c r="G60" s="94" t="s">
         <v>443</v>
       </c>
-      <c r="H60" s="96" t="s">
+      <c r="H60" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="97" t="s">
         <v>442</v>
       </c>
     </row>
@@ -21201,7 +21137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="H7:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -21214,11 +21150,11 @@
   </cols>
   <sheetData>
     <row r="7" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H8" s="4" t="s">
@@ -21228,7 +21164,7 @@
         <f ca="1">COUNTIFS(Reclamações[Data do Recebimento],TODAY(),Reclamações[Status],"EM ANDAMENTO")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="94" t="e">
+      <c r="J8" s="92" t="e">
         <f ca="1">(I8/I10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -21241,7 +21177,7 @@
         <f ca="1">COUNTIFS(Reclamações[Data do Recebimento],TODAY(),Reclamações[Status],"CONCLUÍDO")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="94" t="e">
+      <c r="J9" s="92" t="e">
         <f ca="1">I9/I10</f>
         <v>#DIV/0!</v>
       </c>
@@ -21254,16 +21190,16 @@
         <f ca="1">SUM(I8:I9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="95" t="e">
+      <c r="J10" s="93" t="e">
         <f ca="1">SUM(J8:J9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="58">
         <v>7</v>
       </c>
       <c r="J11" s="4"/>
@@ -21273,11 +21209,11 @@
       </c>
     </row>
     <row r="13" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="107" t="s">
+      <c r="H13" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H14" s="23" t="s">
@@ -21305,11 +21241,11 @@
       </c>
     </row>
     <row r="17" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H17" s="107" t="s">
+      <c r="H17" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H18" s="23" t="s">
@@ -21337,11 +21273,11 @@
       </c>
     </row>
     <row r="21" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H21" s="107" t="s">
+      <c r="H21" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
     </row>
     <row r="22" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H22" s="23" t="s">
@@ -21369,10 +21305,10 @@
       </c>
     </row>
     <row r="25" spans="8:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="107" t="s">
+      <c r="H25" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="109"/>
+      <c r="I25" s="107"/>
     </row>
     <row r="26" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H26" s="4" t="s">
@@ -21384,10 +21320,10 @@
       </c>
     </row>
     <row r="29" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H29" s="110" t="s">
+      <c r="H29" s="108" t="s">
         <v>432</v>
       </c>
-      <c r="I29" s="110"/>
+      <c r="I29" s="108"/>
     </row>
     <row r="30" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H30" s="4" t="s">
@@ -21414,11 +21350,11 @@
       </c>
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H34" s="107" t="s">
+      <c r="H34" s="105" t="s">
         <v>494</v>
       </c>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="107"/>
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H35" s="23" t="s">
@@ -21476,12 +21412,12 @@
   </cols>
   <sheetData>
     <row r="5" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="109"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="107"/>
     </row>
     <row r="6" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H6" s="4"/>
@@ -21509,10 +21445,10 @@
         <f>SUM(I7:J7)</f>
         <v>36</v>
       </c>
-      <c r="M7" s="110" t="s">
+      <c r="M7" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="110"/>
+      <c r="N7" s="108"/>
     </row>
     <row r="8" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H8" s="11" t="s">
@@ -21531,7 +21467,7 @@
       <c r="M8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="75" cm="1">
+      <c r="N8" s="73" cm="1">
         <f t="array" ref="N8">SUMPRODUCT(1*(MONTH(Tb_Quedas[Começou])=3))</f>
         <v>3</v>
       </c>
@@ -21546,12 +21482,12 @@
       </c>
     </row>
     <row r="10" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
     </row>
     <row r="11" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H11" s="4"/>
@@ -21596,12 +21532,12 @@
       </c>
     </row>
     <row r="15" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H15" s="107" t="s">
+      <c r="H15" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="109"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
     </row>
     <row r="16" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H16" s="4"/>
@@ -21672,7 +21608,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>123</v>
       </c>
       <c r="B1" t="s">
@@ -21680,15 +21616,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="66">
         <v>45036</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>121</v>
       </c>
       <c r="B3" t="s">
@@ -21696,7 +21632,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="65" t="s">
         <v>124</v>
       </c>
       <c r="B4" t="s">
